--- a/tabular/contributed/190408 DCV TABLE.xlsx
+++ b/tabular/contributed/190408 DCV TABLE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3315" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3342" uniqueCount="364">
   <si>
     <t>Weight of evidence</t>
   </si>
@@ -1615,11 +1615,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P385"/>
+  <dimension ref="A1:P388"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C366" sqref="C366"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I390" sqref="I390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15959,6 +15959,102 @@
         <v>28789880</v>
       </c>
     </row>
+    <row r="386" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B386" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C386" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="D386" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E386" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F386" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G386" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H386" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I386" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="O386" s="2">
+        <v>29425396</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B387" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C387" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="D387" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E387" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F387" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G387" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H387" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I387" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="O387" s="2">
+        <v>29425396</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B388" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C388" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="D388" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E388" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F388" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G388" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H388" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I388" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="O388" s="2">
+        <v>29425396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/tabular/contributed/190408 DCV TABLE.xlsx
+++ b/tabular/contributed/190408 DCV TABLE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3342" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3327" uniqueCount="364">
   <si>
     <t>Weight of evidence</t>
   </si>
@@ -1615,11 +1615,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P388"/>
+  <dimension ref="A1:P385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I390" sqref="I390"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A297" sqref="A297:XFD299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12356,118 +12356,150 @@
       <c r="P296" s="11"/>
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A297" s="9">
+      <c r="A297" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B297" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D297" s="11"/>
-      <c r="E297" s="11"/>
+        <v>165</v>
+      </c>
+      <c r="D297" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E297" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="F297" s="11"/>
       <c r="G297" s="15" t="s">
         <v>115</v>
       </c>
       <c r="H297" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I297" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="J297" s="11"/>
-      <c r="K297" s="11"/>
-      <c r="L297" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="I297" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J297" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K297" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L297" s="11" t="s">
+        <v>138</v>
+      </c>
       <c r="M297" s="11"/>
       <c r="N297" s="11"/>
       <c r="O297" s="11">
-        <v>29425396</v>
+        <v>29599611</v>
       </c>
       <c r="P297" s="11"/>
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A298" s="9">
+      <c r="A298" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B298" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D298" s="11"/>
-      <c r="E298" s="11"/>
+        <v>166</v>
+      </c>
+      <c r="D298" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E298" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="F298" s="11"/>
       <c r="G298" s="15" t="s">
         <v>115</v>
       </c>
       <c r="H298" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I298" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="J298" s="11"/>
-      <c r="K298" s="11"/>
-      <c r="L298" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="I298" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J298" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K298" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L298" s="11" t="s">
+        <v>138</v>
+      </c>
       <c r="M298" s="11"/>
       <c r="N298" s="11"/>
       <c r="O298" s="11">
-        <v>29425396</v>
+        <v>29599611</v>
       </c>
       <c r="P298" s="11"/>
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A299" s="9">
+      <c r="A299" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B299" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="D299" s="11"/>
-      <c r="E299" s="11"/>
+        <v>168</v>
+      </c>
+      <c r="D299" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E299" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="F299" s="11"/>
       <c r="G299" s="15" t="s">
         <v>115</v>
       </c>
       <c r="H299" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I299" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="J299" s="11"/>
-      <c r="K299" s="11"/>
-      <c r="L299" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="I299" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J299" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K299" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L299" s="11" t="s">
+        <v>138</v>
+      </c>
       <c r="M299" s="11"/>
       <c r="N299" s="11"/>
       <c r="O299" s="11">
-        <v>29425396</v>
+        <v>29599611</v>
       </c>
       <c r="P299" s="11"/>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" s="9" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="B300" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="D300" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E300" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F300" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F300" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="G300" s="15" t="s">
         <v>115</v>
       </c>
@@ -12478,30 +12510,30 @@
         <v>2</v>
       </c>
       <c r="J300" s="11" t="s">
-        <v>137</v>
+        <v>344</v>
       </c>
       <c r="K300" s="11" t="s">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="L300" s="11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M300" s="11"/>
       <c r="N300" s="11"/>
       <c r="O300" s="11">
-        <v>29599611</v>
+        <v>30125371</v>
       </c>
       <c r="P300" s="11"/>
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301" s="9" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="B301" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C301" s="11" t="s">
-        <v>166</v>
+        <v>276</v>
       </c>
       <c r="D301" s="11" t="s">
         <v>22</v>
@@ -12520,148 +12552,150 @@
         <v>2</v>
       </c>
       <c r="J301" s="11" t="s">
-        <v>137</v>
+        <v>344</v>
       </c>
       <c r="K301" s="11" t="s">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="L301" s="11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M301" s="11"/>
       <c r="N301" s="11"/>
       <c r="O301" s="11">
-        <v>29599611</v>
+        <v>30125371</v>
       </c>
       <c r="P301" s="11"/>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A302" s="9" t="s">
+    <row r="302" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B302" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C302" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D302" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E302" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F302" s="11"/>
+      <c r="C302" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="D302" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E302" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F302" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="G302" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="H302" s="11" t="s">
+      <c r="H302" s="23" t="s">
         <v>1</v>
       </c>
       <c r="I302" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J302" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="K302" s="11" t="s">
+      <c r="J302" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="K302" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="L302" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="M302" s="11"/>
-      <c r="N302" s="11"/>
-      <c r="O302" s="11">
-        <v>29599611</v>
-      </c>
-      <c r="P302" s="11"/>
-    </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A303" s="9" t="s">
-        <v>139</v>
+      <c r="L302" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="M302" s="23"/>
+      <c r="N302" s="23"/>
+      <c r="O302" s="23">
+        <v>28078469</v>
+      </c>
+      <c r="P302" s="23"/>
+    </row>
+    <row r="303" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="33" t="s">
+        <v>3</v>
       </c>
       <c r="B303" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C303" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D303" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E303" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F303" s="11" t="s">
-        <v>140</v>
+      <c r="C303" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="D303" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E303" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F303" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="G303" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="H303" s="11" t="s">
+      <c r="H303" s="23" t="s">
         <v>1</v>
       </c>
       <c r="I303" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J303" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="K303" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="L303" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="M303" s="11"/>
-      <c r="N303" s="11"/>
-      <c r="O303" s="11">
-        <v>30125371</v>
-      </c>
-      <c r="P303" s="11"/>
-    </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A304" s="9" t="s">
-        <v>139</v>
+      <c r="J303" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="K303" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L303" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="M303" s="23"/>
+      <c r="N303" s="23"/>
+      <c r="O303" s="23">
+        <v>28078469</v>
+      </c>
+      <c r="P303" s="23"/>
+    </row>
+    <row r="304" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="33" t="s">
+        <v>3</v>
       </c>
       <c r="B304" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C304" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D304" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E304" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F304" s="11"/>
+      <c r="C304" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="D304" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E304" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F304" s="23"/>
       <c r="G304" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="H304" s="11" t="s">
+      <c r="H304" s="23" t="s">
         <v>1</v>
       </c>
       <c r="I304" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J304" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="K304" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="L304" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="M304" s="11"/>
-      <c r="N304" s="11"/>
-      <c r="O304" s="11">
-        <v>30125371</v>
-      </c>
-      <c r="P304" s="11"/>
+      <c r="J304" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="K304" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L304" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="M304" s="23"/>
+      <c r="N304" s="23"/>
+      <c r="O304" s="23">
+        <v>28078469</v>
+      </c>
+      <c r="P304" s="23"/>
     </row>
     <row r="305" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="33" t="s">
@@ -12671,17 +12705,15 @@
         <v>21</v>
       </c>
       <c r="C305" s="23" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D305" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E305" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F305" s="23" t="s">
-        <v>131</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F305" s="23"/>
       <c r="G305" s="15" t="s">
         <v>115</v>
       </c>
@@ -12715,17 +12747,15 @@
         <v>21</v>
       </c>
       <c r="C306" s="23" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D306" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E306" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F306" s="23" t="s">
-        <v>131</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F306" s="23"/>
       <c r="G306" s="15" t="s">
         <v>115</v>
       </c>
@@ -12759,15 +12789,17 @@
         <v>21</v>
       </c>
       <c r="C307" s="23" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D307" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E307" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F307" s="23"/>
+        <v>22</v>
+      </c>
+      <c r="F307" s="23" t="s">
+        <v>145</v>
+      </c>
       <c r="G307" s="15" t="s">
         <v>115</v>
       </c>
@@ -12793,23 +12825,23 @@
       </c>
       <c r="P307" s="23"/>
     </row>
-    <row r="308" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="33" t="s">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A308" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B308" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C308" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="D308" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E308" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F308" s="23"/>
+      <c r="B308" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C308" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D308" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E308" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F308" s="11"/>
       <c r="G308" s="15" t="s">
         <v>115</v>
       </c>
@@ -12822,36 +12854,36 @@
       <c r="J308" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="K308" s="23" t="s">
+      <c r="K308" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L308" s="23" t="s">
+      <c r="L308" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="M308" s="23"/>
-      <c r="N308" s="23"/>
-      <c r="O308" s="23">
+      <c r="M308" s="11"/>
+      <c r="N308" s="11"/>
+      <c r="O308" s="11">
         <v>28078469</v>
       </c>
-      <c r="P308" s="23"/>
-    </row>
-    <row r="309" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="33" t="s">
+      <c r="P308" s="11"/>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A309" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B309" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C309" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="D309" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E309" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F309" s="23"/>
+      <c r="B309" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C309" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D309" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E309" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F309" s="11"/>
       <c r="G309" s="15" t="s">
         <v>115</v>
       </c>
@@ -12864,37 +12896,37 @@
       <c r="J309" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="K309" s="23" t="s">
+      <c r="K309" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L309" s="23" t="s">
+      <c r="L309" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="M309" s="23"/>
-      <c r="N309" s="23"/>
-      <c r="O309" s="23">
+      <c r="M309" s="11"/>
+      <c r="N309" s="11"/>
+      <c r="O309" s="11">
         <v>28078469</v>
       </c>
-      <c r="P309" s="23"/>
-    </row>
-    <row r="310" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="33" t="s">
+      <c r="P309" s="11"/>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A310" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B310" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C310" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="D310" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E310" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F310" s="23" t="s">
-        <v>145</v>
+      <c r="B310" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C310" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D310" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E310" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F310" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="G310" s="15" t="s">
         <v>115</v>
@@ -12914,12 +12946,12 @@
       <c r="L310" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="M310" s="23"/>
-      <c r="N310" s="23"/>
-      <c r="O310" s="23">
+      <c r="M310" s="11"/>
+      <c r="N310" s="11"/>
+      <c r="O310" s="11">
         <v>28078469</v>
       </c>
-      <c r="P310" s="23"/>
+      <c r="P310" s="11"/>
     </row>
     <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" s="9" t="s">
@@ -12929,7 +12961,7 @@
         <v>21</v>
       </c>
       <c r="C311" s="11" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D311" s="11" t="s">
         <v>22</v>
@@ -12971,15 +13003,17 @@
         <v>21</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D312" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E312" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F312" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F312" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="G312" s="15" t="s">
         <v>115</v>
       </c>
@@ -13013,17 +13047,15 @@
         <v>21</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D313" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E313" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F313" s="11" t="s">
-        <v>150</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F313" s="11"/>
       <c r="G313" s="15" t="s">
         <v>115</v>
       </c>
@@ -13036,10 +13068,10 @@
       <c r="J313" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="K313" s="23" t="s">
+      <c r="K313" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L313" s="23" t="s">
+      <c r="L313" s="11" t="s">
         <v>149</v>
       </c>
       <c r="M313" s="11"/>
@@ -13057,15 +13089,17 @@
         <v>21</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>286</v>
+        <v>175</v>
       </c>
       <c r="D314" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E314" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F314" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F314" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="G314" s="15" t="s">
         <v>115</v>
       </c>
@@ -13099,7 +13133,7 @@
         <v>21</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D315" s="11" t="s">
         <v>23</v>
@@ -13107,9 +13141,7 @@
       <c r="E315" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F315" s="11" t="s">
-        <v>132</v>
-      </c>
+      <c r="F315" s="11"/>
       <c r="G315" s="15" t="s">
         <v>115</v>
       </c>
@@ -13143,7 +13175,7 @@
         <v>21</v>
       </c>
       <c r="C316" s="11" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D316" s="11" t="s">
         <v>22</v>
@@ -13185,7 +13217,7 @@
         <v>21</v>
       </c>
       <c r="C317" s="11" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="D317" s="11" t="s">
         <v>23</v>
@@ -13194,7 +13226,7 @@
         <v>22</v>
       </c>
       <c r="F317" s="11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G317" s="15" t="s">
         <v>115</v>
@@ -13229,13 +13261,13 @@
         <v>21</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D318" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E318" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F318" s="11"/>
       <c r="G318" s="15" t="s">
@@ -13271,15 +13303,17 @@
         <v>21</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="D319" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E319" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F319" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F319" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="G319" s="15" t="s">
         <v>115</v>
       </c>
@@ -13313,17 +13347,15 @@
         <v>21</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D320" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E320" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F320" s="11" t="s">
-        <v>142</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F320" s="11"/>
       <c r="G320" s="15" t="s">
         <v>115</v>
       </c>
@@ -13357,15 +13389,17 @@
         <v>21</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>291</v>
+        <v>177</v>
       </c>
       <c r="D321" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E321" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F321" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F321" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="G321" s="15" t="s">
         <v>115</v>
       </c>
@@ -13399,17 +13433,15 @@
         <v>21</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>174</v>
+        <v>293</v>
       </c>
       <c r="D322" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E322" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F322" s="11" t="s">
-        <v>143</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F322" s="11"/>
       <c r="G322" s="15" t="s">
         <v>115</v>
       </c>
@@ -13443,15 +13475,17 @@
         <v>21</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="D323" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E323" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F323" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F323" s="11" t="s">
+        <v>145</v>
+      </c>
       <c r="G323" s="15" t="s">
         <v>115</v>
       </c>
@@ -13485,17 +13519,15 @@
         <v>21</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>177</v>
+        <v>294</v>
       </c>
       <c r="D324" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E324" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F324" s="11" t="s">
-        <v>144</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E324" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F324" s="11"/>
       <c r="G324" s="15" t="s">
         <v>115</v>
       </c>
@@ -13529,15 +13561,17 @@
         <v>21</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>293</v>
+        <v>175</v>
       </c>
       <c r="D325" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E325" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F325" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F325" s="23" t="s">
+        <v>146</v>
+      </c>
       <c r="G325" s="15" t="s">
         <v>115</v>
       </c>
@@ -13571,17 +13605,15 @@
         <v>21</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="D326" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E326" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F326" s="11" t="s">
-        <v>145</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E326" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F326" s="11"/>
       <c r="G326" s="15" t="s">
         <v>115</v>
       </c>
@@ -13615,15 +13647,17 @@
         <v>21</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>294</v>
+        <v>232</v>
       </c>
       <c r="D327" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E327" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F327" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="E327" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F327" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="G327" s="15" t="s">
         <v>115</v>
       </c>
@@ -13657,17 +13691,15 @@
         <v>21</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>175</v>
+        <v>295</v>
       </c>
       <c r="D328" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E328" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F328" s="23" t="s">
-        <v>146</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E328" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F328" s="11"/>
       <c r="G328" s="15" t="s">
         <v>115</v>
       </c>
@@ -13701,15 +13733,17 @@
         <v>21</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="D329" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E329" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F329" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="E329" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F329" s="23" t="s">
+        <v>120</v>
+      </c>
       <c r="G329" s="15" t="s">
         <v>115</v>
       </c>
@@ -13743,7 +13777,7 @@
         <v>21</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D330" s="11" t="s">
         <v>23</v>
@@ -13752,7 +13786,7 @@
         <v>22</v>
       </c>
       <c r="F330" s="11" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="G330" s="15" t="s">
         <v>115</v>
@@ -13787,7 +13821,7 @@
         <v>21</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D331" s="11" t="s">
         <v>22</v>
@@ -13829,7 +13863,7 @@
         <v>21</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="D332" s="11" t="s">
         <v>23</v>
@@ -13837,8 +13871,8 @@
       <c r="E332" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F332" s="23" t="s">
-        <v>120</v>
+      <c r="F332" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="G332" s="15" t="s">
         <v>115</v>
@@ -13873,17 +13907,15 @@
         <v>21</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="D333" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E333" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F333" s="11" t="s">
-        <v>132</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E333" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F333" s="11"/>
       <c r="G333" s="15" t="s">
         <v>115</v>
       </c>
@@ -13917,15 +13949,17 @@
         <v>21</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>296</v>
+        <v>167</v>
       </c>
       <c r="D334" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E334" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F334" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="E334" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F334" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="G334" s="15" t="s">
         <v>115</v>
       </c>
@@ -13959,17 +13993,15 @@
         <v>21</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>190</v>
+        <v>298</v>
       </c>
       <c r="D335" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E335" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F335" s="11" t="s">
-        <v>132</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E335" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F335" s="11"/>
       <c r="G335" s="15" t="s">
         <v>115</v>
       </c>
@@ -14003,7 +14035,7 @@
         <v>21</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D336" s="11" t="s">
         <v>22</v>
@@ -14045,7 +14077,7 @@
         <v>21</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="D337" s="11" t="s">
         <v>23</v>
@@ -14054,7 +14086,7 @@
         <v>22</v>
       </c>
       <c r="F337" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G337" s="15" t="s">
         <v>115</v>
@@ -14089,7 +14121,7 @@
         <v>21</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D338" s="11" t="s">
         <v>22</v>
@@ -14131,15 +14163,17 @@
         <v>21</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>299</v>
+        <v>175</v>
       </c>
       <c r="D339" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E339" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F339" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="E339" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F339" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="G339" s="15" t="s">
         <v>115</v>
       </c>
@@ -14173,17 +14207,15 @@
         <v>21</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="D340" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E340" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F340" s="11" t="s">
-        <v>145</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E340" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F340" s="11"/>
       <c r="G340" s="15" t="s">
         <v>115</v>
       </c>
@@ -14217,13 +14249,13 @@
         <v>21</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="D341" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E341" s="23" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="E341" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="F341" s="11"/>
       <c r="G341" s="15" t="s">
@@ -14259,7 +14291,7 @@
         <v>21</v>
       </c>
       <c r="C342" s="11" t="s">
-        <v>175</v>
+        <v>302</v>
       </c>
       <c r="D342" s="11" t="s">
         <v>23</v>
@@ -14267,9 +14299,7 @@
       <c r="E342" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F342" s="11" t="s">
-        <v>132</v>
-      </c>
+      <c r="F342" s="11"/>
       <c r="G342" s="15" t="s">
         <v>115</v>
       </c>
@@ -14296,22 +14326,24 @@
       <c r="P342" s="11"/>
     </row>
     <row r="343" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A343" s="9" t="s">
+      <c r="A343" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B343" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C343" s="11" t="s">
-        <v>300</v>
+      <c r="C343" s="23" t="s">
+        <v>239</v>
       </c>
       <c r="D343" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E343" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F343" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="E343" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F343" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="G343" s="15" t="s">
         <v>115</v>
       </c>
@@ -14321,31 +14353,31 @@
       <c r="I343" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J343" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="K343" s="11" t="s">
+      <c r="J343" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K343" s="23" t="s">
         <v>90</v>
       </c>
       <c r="L343" s="11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M343" s="11"/>
       <c r="N343" s="11"/>
       <c r="O343" s="11">
-        <v>28078469</v>
+        <v>24444658</v>
       </c>
       <c r="P343" s="11"/>
     </row>
     <row r="344" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A344" s="9" t="s">
+      <c r="A344" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B344" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C344" s="11" t="s">
-        <v>301</v>
+      <c r="C344" s="23" t="s">
+        <v>176</v>
       </c>
       <c r="D344" s="11" t="s">
         <v>23</v>
@@ -14353,7 +14385,9 @@
       <c r="E344" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F344" s="11"/>
+      <c r="F344" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="G344" s="15" t="s">
         <v>115</v>
       </c>
@@ -14363,31 +14397,31 @@
       <c r="I344" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J344" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="K344" s="11" t="s">
+      <c r="J344" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K344" s="23" t="s">
         <v>90</v>
       </c>
       <c r="L344" s="11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M344" s="11"/>
       <c r="N344" s="11"/>
       <c r="O344" s="11">
-        <v>28078469</v>
+        <v>24444658</v>
       </c>
       <c r="P344" s="11"/>
     </row>
     <row r="345" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A345" s="9" t="s">
+      <c r="A345" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B345" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C345" s="11" t="s">
-        <v>302</v>
+      <c r="C345" s="23" t="s">
+        <v>241</v>
       </c>
       <c r="D345" s="11" t="s">
         <v>23</v>
@@ -14395,7 +14429,9 @@
       <c r="E345" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F345" s="11"/>
+      <c r="F345" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="G345" s="15" t="s">
         <v>115</v>
       </c>
@@ -14405,19 +14441,19 @@
       <c r="I345" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J345" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="K345" s="11" t="s">
+      <c r="J345" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K345" s="23" t="s">
         <v>90</v>
       </c>
       <c r="L345" s="11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M345" s="11"/>
       <c r="N345" s="11"/>
       <c r="O345" s="11">
-        <v>28078469</v>
+        <v>24444658</v>
       </c>
       <c r="P345" s="11"/>
     </row>
@@ -14429,7 +14465,7 @@
         <v>21</v>
       </c>
       <c r="C346" s="23" t="s">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="D346" s="11" t="s">
         <v>23</v>
@@ -14438,7 +14474,7 @@
         <v>22</v>
       </c>
       <c r="F346" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G346" s="15" t="s">
         <v>115</v>
@@ -14473,7 +14509,7 @@
         <v>21</v>
       </c>
       <c r="C347" s="23" t="s">
-        <v>176</v>
+        <v>303</v>
       </c>
       <c r="D347" s="11" t="s">
         <v>23</v>
@@ -14481,9 +14517,7 @@
       <c r="E347" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F347" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="F347" s="11"/>
       <c r="G347" s="15" t="s">
         <v>115</v>
       </c>
@@ -14517,7 +14551,7 @@
         <v>21</v>
       </c>
       <c r="C348" s="23" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="D348" s="11" t="s">
         <v>23</v>
@@ -14525,9 +14559,7 @@
       <c r="E348" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F348" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="F348" s="11"/>
       <c r="G348" s="15" t="s">
         <v>115</v>
       </c>
@@ -14541,7 +14573,7 @@
         <v>91</v>
       </c>
       <c r="K348" s="23" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="L348" s="11" t="s">
         <v>153</v>
@@ -14555,13 +14587,13 @@
     </row>
     <row r="349" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A349" s="33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B349" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C349" s="23" t="s">
-        <v>166</v>
+        <v>303</v>
       </c>
       <c r="D349" s="11" t="s">
         <v>23</v>
@@ -14569,9 +14601,7 @@
       <c r="E349" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F349" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="F349" s="11"/>
       <c r="G349" s="15" t="s">
         <v>115</v>
       </c>
@@ -14585,7 +14615,7 @@
         <v>91</v>
       </c>
       <c r="K349" s="23" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="L349" s="11" t="s">
         <v>153</v>
@@ -14599,13 +14629,13 @@
     </row>
     <row r="350" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A350" s="33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B350" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C350" s="23" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="D350" s="11" t="s">
         <v>23</v>
@@ -14627,7 +14657,7 @@
         <v>91</v>
       </c>
       <c r="K350" s="23" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="L350" s="11" t="s">
         <v>153</v>
@@ -14641,19 +14671,19 @@
     </row>
     <row r="351" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A351" s="33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B351" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C351" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="D351" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E351" s="11" t="s">
-        <v>22</v>
+        <v>304</v>
+      </c>
+      <c r="D351" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E351" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="F351" s="11"/>
       <c r="G351" s="15" t="s">
@@ -14669,7 +14699,7 @@
         <v>91</v>
       </c>
       <c r="K351" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L351" s="11" t="s">
         <v>153</v>
@@ -14683,19 +14713,19 @@
     </row>
     <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352" s="33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B352" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C352" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="D352" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E352" s="11" t="s">
-        <v>22</v>
+        <v>304</v>
+      </c>
+      <c r="D352" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E352" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="F352" s="11"/>
       <c r="G352" s="15" t="s">
@@ -14711,7 +14741,7 @@
         <v>91</v>
       </c>
       <c r="K352" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L352" s="11" t="s">
         <v>153</v>
@@ -14731,7 +14761,7 @@
         <v>21</v>
       </c>
       <c r="C353" s="23" t="s">
-        <v>204</v>
+        <v>305</v>
       </c>
       <c r="D353" s="11" t="s">
         <v>23</v>
@@ -14753,7 +14783,7 @@
         <v>91</v>
       </c>
       <c r="K353" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L353" s="11" t="s">
         <v>153</v>
@@ -14767,19 +14797,19 @@
     </row>
     <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354" s="33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B354" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C354" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="D354" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E354" s="23" t="s">
-        <v>23</v>
+        <v>305</v>
+      </c>
+      <c r="D354" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E354" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="F354" s="11"/>
       <c r="G354" s="15" t="s">
@@ -14809,19 +14839,19 @@
     </row>
     <row r="355" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A355" s="33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B355" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C355" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="D355" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E355" s="23" t="s">
-        <v>23</v>
+        <v>163</v>
+      </c>
+      <c r="D355" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E355" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="F355" s="11"/>
       <c r="G355" s="15" t="s">
@@ -14851,13 +14881,13 @@
     </row>
     <row r="356" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A356" s="33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B356" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C356" s="23" t="s">
-        <v>305</v>
+        <v>163</v>
       </c>
       <c r="D356" s="11" t="s">
         <v>23</v>
@@ -14893,13 +14923,13 @@
     </row>
     <row r="357" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A357" s="33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B357" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C357" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D357" s="11" t="s">
         <v>23</v>
@@ -14935,13 +14965,13 @@
     </row>
     <row r="358" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A358" s="33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B358" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C358" s="23" t="s">
-        <v>163</v>
+        <v>306</v>
       </c>
       <c r="D358" s="11" t="s">
         <v>23</v>
@@ -14977,13 +15007,13 @@
     </row>
     <row r="359" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A359" s="33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B359" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C359" s="23" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="D359" s="11" t="s">
         <v>23</v>
@@ -15019,13 +15049,13 @@
     </row>
     <row r="360" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A360" s="33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B360" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C360" s="23" t="s">
-        <v>306</v>
+        <v>194</v>
       </c>
       <c r="D360" s="11" t="s">
         <v>23</v>
@@ -15061,13 +15091,13 @@
     </row>
     <row r="361" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A361" s="33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B361" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C361" s="23" t="s">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="D361" s="11" t="s">
         <v>23</v>
@@ -15103,13 +15133,13 @@
     </row>
     <row r="362" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A362" s="33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B362" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C362" s="23" t="s">
-        <v>194</v>
+        <v>363</v>
       </c>
       <c r="D362" s="11" t="s">
         <v>23</v>
@@ -15145,13 +15175,13 @@
     </row>
     <row r="363" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A363" s="33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B363" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C363" s="23" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="D363" s="11" t="s">
         <v>23</v>
@@ -15187,13 +15217,13 @@
     </row>
     <row r="364" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A364" s="33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B364" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C364" s="23" t="s">
-        <v>363</v>
+        <v>169</v>
       </c>
       <c r="D364" s="11" t="s">
         <v>23</v>
@@ -15227,131 +15257,116 @@
       </c>
       <c r="P364" s="11"/>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A365" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B365" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C365" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="D365" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E365" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F365" s="11"/>
-      <c r="G365" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H365" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I365" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J365" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K365" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="L365" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="M365" s="11"/>
-      <c r="N365" s="11"/>
-      <c r="O365" s="11">
-        <v>24444658</v>
-      </c>
-      <c r="P365" s="11"/>
-    </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A366" s="33" t="s">
+    <row r="365" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B365" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C365" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D365" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E365" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G365" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H365" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I365" s="25"/>
+      <c r="J365" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="K365" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="O365" s="2">
+        <v>26822022</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B366" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C366" s="23" t="s">
+      <c r="B366" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C366" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="D366" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E366" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F366" s="11"/>
-      <c r="G366" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H366" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I366" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J366" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K366" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="L366" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="M366" s="11"/>
-      <c r="N366" s="11"/>
-      <c r="O366" s="11">
-        <v>24444658</v>
-      </c>
-      <c r="P366" s="11"/>
-    </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A367" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B367" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C367" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D367" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E367" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F367" s="11"/>
-      <c r="G367" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H367" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I367" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J367" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K367" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="L367" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="M367" s="11"/>
-      <c r="N367" s="11"/>
-      <c r="O367" s="11">
-        <v>24444658</v>
-      </c>
-      <c r="P367" s="11"/>
+      <c r="D366" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E366" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F366" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="G366" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H366" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I366" s="25"/>
+      <c r="J366" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="K366" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="M366" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="O366" s="2">
+        <v>27025835</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B367" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C367" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D367" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E367" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F367" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="G367" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H367" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I367" s="25"/>
+      <c r="J367" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="K367" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="M367" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="O367" s="2">
+        <v>27025835</v>
+      </c>
     </row>
     <row r="368" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A368" s="28" t="s">
@@ -15361,10 +15376,10 @@
         <v>21</v>
       </c>
       <c r="C368" s="28" t="s">
-        <v>168</v>
+        <v>313</v>
       </c>
       <c r="D368" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E368" s="28" t="s">
         <v>22</v>
@@ -15383,27 +15398,24 @@
         <v>355</v>
       </c>
       <c r="O368" s="2">
-        <v>26822022</v>
+        <v>25614962</v>
       </c>
     </row>
     <row r="369" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" s="28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B369" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C369" s="28" t="s">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="D369" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E369" s="28" t="s">
         <v>22</v>
-      </c>
-      <c r="F369" s="28" t="s">
-        <v>316</v>
       </c>
       <c r="G369" s="28" t="s">
         <v>115</v>
@@ -15413,36 +15425,30 @@
       </c>
       <c r="I369" s="25"/>
       <c r="J369" s="28" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K369" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="M369" s="28" t="s">
-        <v>314</v>
-      </c>
       <c r="O369" s="2">
-        <v>27025835</v>
+        <v>25614962</v>
       </c>
     </row>
     <row r="370" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A370" s="28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B370" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C370" s="28" t="s">
-        <v>182</v>
+        <v>312</v>
       </c>
       <c r="D370" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E370" s="28" t="s">
         <v>22</v>
-      </c>
-      <c r="F370" s="28" t="s">
-        <v>316</v>
       </c>
       <c r="G370" s="28" t="s">
         <v>115</v>
@@ -15452,27 +15458,24 @@
       </c>
       <c r="I370" s="25"/>
       <c r="J370" s="28" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K370" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="M370" s="28" t="s">
-        <v>314</v>
-      </c>
       <c r="O370" s="2">
-        <v>27025835</v>
+        <v>25614962</v>
       </c>
     </row>
     <row r="371" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" s="28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B371" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C371" s="28" t="s">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="D371" s="28" t="s">
         <v>23</v>
@@ -15488,24 +15491,24 @@
       </c>
       <c r="I371" s="25"/>
       <c r="J371" s="28" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="K371" s="18" t="s">
         <v>355</v>
       </c>
       <c r="O371" s="2">
-        <v>25614962</v>
+        <v>29146520</v>
       </c>
     </row>
     <row r="372" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A372" s="28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B372" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C372" s="28" t="s">
-        <v>274</v>
+        <v>182</v>
       </c>
       <c r="D372" s="28" t="s">
         <v>23</v>
@@ -15521,27 +15524,27 @@
       </c>
       <c r="I372" s="25"/>
       <c r="J372" s="28" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="K372" s="18" t="s">
         <v>355</v>
       </c>
       <c r="O372" s="2">
-        <v>25614962</v>
+        <v>29146520</v>
       </c>
     </row>
     <row r="373" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" s="28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B373" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C373" s="28" t="s">
-        <v>312</v>
+        <v>165</v>
       </c>
       <c r="D373" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E373" s="28" t="s">
         <v>22</v>
@@ -15554,24 +15557,24 @@
       </c>
       <c r="I373" s="25"/>
       <c r="J373" s="28" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="K373" s="18" t="s">
         <v>355</v>
       </c>
       <c r="O373" s="2">
-        <v>25614962</v>
+        <v>29146520</v>
       </c>
     </row>
     <row r="374" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A374" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B374" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C374" s="28" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D374" s="28" t="s">
         <v>23</v>
@@ -15598,13 +15601,13 @@
     </row>
     <row r="375" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B375" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C375" s="28" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D375" s="28" t="s">
         <v>23</v>
@@ -15630,14 +15633,14 @@
       </c>
     </row>
     <row r="376" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="28" t="s">
+      <c r="A376" s="28">
         <v>4</v>
       </c>
       <c r="B376" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C376" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D376" s="28" t="s">
         <v>23</v>
@@ -15663,14 +15666,14 @@
       </c>
     </row>
     <row r="377" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="28" t="s">
-        <v>3</v>
+      <c r="A377" s="28">
+        <v>4</v>
       </c>
       <c r="B377" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C377" s="28" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D377" s="28" t="s">
         <v>23</v>
@@ -15696,8 +15699,8 @@
       </c>
     </row>
     <row r="378" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="28" t="s">
-        <v>3</v>
+      <c r="A378" s="28">
+        <v>4</v>
       </c>
       <c r="B378" s="28" t="s">
         <v>21</v>
@@ -15729,20 +15732,20 @@
       </c>
     </row>
     <row r="379" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="28">
-        <v>4</v>
+      <c r="A379" s="28" t="s">
+        <v>139</v>
       </c>
       <c r="B379" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C379" s="28" t="s">
-        <v>161</v>
+        <v>276</v>
       </c>
       <c r="D379" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E379" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G379" s="28" t="s">
         <v>115</v>
@@ -15752,24 +15755,24 @@
       </c>
       <c r="I379" s="25"/>
       <c r="J379" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="K379" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="K379" s="36" t="s">
         <v>355</v>
       </c>
       <c r="O379" s="2">
-        <v>29146520</v>
+        <v>30125371</v>
       </c>
     </row>
     <row r="380" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="28">
-        <v>4</v>
+      <c r="A380" s="28" t="s">
+        <v>139</v>
       </c>
       <c r="B380" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C380" s="28" t="s">
-        <v>183</v>
+        <v>317</v>
       </c>
       <c r="D380" s="28" t="s">
         <v>23</v>
@@ -15785,24 +15788,24 @@
       </c>
       <c r="I380" s="25"/>
       <c r="J380" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="K380" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="K380" s="36" t="s">
         <v>355</v>
       </c>
       <c r="O380" s="2">
-        <v>29146520</v>
+        <v>30125371</v>
       </c>
     </row>
     <row r="381" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="28">
-        <v>4</v>
+      <c r="A381" s="28" t="s">
+        <v>139</v>
       </c>
       <c r="B381" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C381" s="28" t="s">
-        <v>168</v>
+        <v>318</v>
       </c>
       <c r="D381" s="28" t="s">
         <v>23</v>
@@ -15818,24 +15821,24 @@
       </c>
       <c r="I381" s="25"/>
       <c r="J381" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="K381" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="K381" s="36" t="s">
         <v>355</v>
       </c>
       <c r="O381" s="2">
-        <v>29146520</v>
+        <v>30125371</v>
       </c>
     </row>
     <row r="382" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A382" s="28" t="s">
-        <v>139</v>
+        <v>319</v>
       </c>
       <c r="B382" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C382" s="28" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="D382" s="28" t="s">
         <v>22</v>
@@ -15851,207 +15854,108 @@
       </c>
       <c r="I382" s="25"/>
       <c r="J382" s="28" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="K382" s="36" t="s">
         <v>355</v>
       </c>
       <c r="O382" s="2">
-        <v>30125371</v>
+        <v>28789880</v>
       </c>
     </row>
     <row r="383" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" s="28" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="B383" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C383" s="28" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="D383" s="28" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E383" s="28" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="F383" s="28" t="s">
+        <v>2</v>
       </c>
       <c r="G383" s="28" t="s">
         <v>115</v>
       </c>
       <c r="H383" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I383" s="25"/>
-      <c r="J383" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="K383" s="36" t="s">
-        <v>355</v>
+        <v>5</v>
+      </c>
+      <c r="I383" s="25" t="s">
+        <v>348</v>
       </c>
       <c r="O383" s="2">
-        <v>30125371</v>
+        <v>29425396</v>
       </c>
     </row>
     <row r="384" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A384" s="28" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="B384" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C384" s="28" t="s">
-        <v>318</v>
+        <v>215</v>
       </c>
       <c r="D384" s="28" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E384" s="28" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="F384" s="28" t="s">
+        <v>2</v>
       </c>
       <c r="G384" s="28" t="s">
         <v>115</v>
       </c>
       <c r="H384" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I384" s="25"/>
-      <c r="J384" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="K384" s="36" t="s">
-        <v>355</v>
+        <v>5</v>
+      </c>
+      <c r="I384" s="25" t="s">
+        <v>348</v>
       </c>
       <c r="O384" s="2">
-        <v>30125371</v>
+        <v>29425396</v>
       </c>
     </row>
     <row r="385" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="28" t="s">
-        <v>319</v>
+        <v>6</v>
       </c>
       <c r="B385" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C385" s="28" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="D385" s="28" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E385" s="28" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="F385" s="28" t="s">
+        <v>2</v>
       </c>
       <c r="G385" s="28" t="s">
         <v>115</v>
       </c>
       <c r="H385" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I385" s="25"/>
-      <c r="J385" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="K385" s="36" t="s">
-        <v>355</v>
+        <v>5</v>
+      </c>
+      <c r="I385" s="25" t="s">
+        <v>348</v>
       </c>
       <c r="O385" s="2">
-        <v>28789880</v>
-      </c>
-    </row>
-    <row r="386" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B386" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C386" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="D386" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E386" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F386" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G386" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="H386" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I386" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="O386" s="2">
-        <v>29425396</v>
-      </c>
-    </row>
-    <row r="387" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B387" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C387" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="D387" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E387" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F387" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G387" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="H387" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I387" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="O387" s="2">
-        <v>29425396</v>
-      </c>
-    </row>
-    <row r="388" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B388" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C388" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D388" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E388" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F388" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G388" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="H388" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I388" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="O388" s="2">
         <v>29425396</v>
       </c>
     </row>

--- a/tabular/contributed/190408 DCV TABLE.xlsx
+++ b/tabular/contributed/190408 DCV TABLE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="3600" windowWidth="45500" windowHeight="16680"/>
+    <workbookView xWindow="4420" yWindow="7280" windowWidth="45500" windowHeight="16680"/>
   </bookViews>
   <sheets>
     <sheet name="DCV" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3327" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="361">
   <si>
     <t>Weight of evidence</t>
   </si>
@@ -387,9 +387,6 @@
     <t>R30Q+Y93H</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Q54L</t>
   </si>
   <si>
@@ -912,9 +909,6 @@
     <t>24K+28M</t>
   </si>
   <si>
-    <t>54H</t>
-  </si>
-  <si>
     <t>37L+54L+92T</t>
   </si>
   <si>
@@ -949,9 +943,6 @@
   </si>
   <si>
     <t>30E+62Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54H </t>
   </si>
   <si>
     <t xml:space="preserve">58S </t>
@@ -1615,11 +1606,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P385"/>
+  <dimension ref="A1:P381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A297" sqref="A297:XFD299"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A167" sqref="A167:XFD167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1669,7 +1660,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>15</v>
@@ -1701,7 +1692,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -1733,7 +1724,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -1765,7 +1756,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -1797,7 +1788,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -1829,7 +1820,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -1861,7 +1852,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -1893,7 +1884,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -1925,7 +1916,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -1957,7 +1948,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -1989,7 +1980,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -2021,7 +2012,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -2053,7 +2044,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -2065,7 +2056,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -2085,7 +2076,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -2117,7 +2108,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -2149,7 +2140,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -2181,7 +2172,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -2213,7 +2204,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -2245,7 +2236,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -2277,7 +2268,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -2309,7 +2300,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -2341,7 +2332,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -2373,7 +2364,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -2405,7 +2396,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -2437,7 +2428,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -2469,7 +2460,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -2501,7 +2492,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
@@ -2533,7 +2524,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -2565,7 +2556,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -2597,7 +2588,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
@@ -2629,7 +2620,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -2661,7 +2652,7 @@
         <v>21</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -2693,7 +2684,7 @@
         <v>21</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -2725,7 +2716,7 @@
         <v>21</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -2737,7 +2728,7 @@
         <v>5</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
@@ -2757,7 +2748,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
@@ -2789,7 +2780,7 @@
         <v>21</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
@@ -2821,7 +2812,7 @@
         <v>21</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -2853,7 +2844,7 @@
         <v>21</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -2885,7 +2876,7 @@
         <v>21</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
@@ -2917,7 +2908,7 @@
         <v>21</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
@@ -2949,7 +2940,7 @@
         <v>21</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -2981,7 +2972,7 @@
         <v>21</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -3013,7 +3004,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -3045,7 +3036,7 @@
         <v>21</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -3077,7 +3068,7 @@
         <v>21</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
@@ -3109,7 +3100,7 @@
         <v>21</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
@@ -3141,7 +3132,7 @@
         <v>21</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
@@ -3173,7 +3164,7 @@
         <v>21</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
@@ -3205,7 +3196,7 @@
         <v>21</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
@@ -3237,7 +3228,7 @@
         <v>21</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
@@ -3269,7 +3260,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
@@ -3301,7 +3292,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
@@ -3333,7 +3324,7 @@
         <v>21</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
@@ -3365,7 +3356,7 @@
         <v>21</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
@@ -3397,7 +3388,7 @@
         <v>21</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
@@ -3429,7 +3420,7 @@
         <v>21</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
@@ -3461,7 +3452,7 @@
         <v>21</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
@@ -3493,7 +3484,7 @@
         <v>21</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
@@ -3525,7 +3516,7 @@
         <v>21</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
@@ -3557,7 +3548,7 @@
         <v>21</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
@@ -3589,7 +3580,7 @@
         <v>21</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
@@ -3621,7 +3612,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
@@ -3653,7 +3644,7 @@
         <v>21</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>23</v>
@@ -3674,10 +3665,10 @@
         <v>2</v>
       </c>
       <c r="J63" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L63" s="15"/>
       <c r="M63" s="16"/>
@@ -3695,7 +3686,7 @@
         <v>21</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>23</v>
@@ -3716,10 +3707,10 @@
         <v>2</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L64" s="15"/>
       <c r="M64" s="16"/>
@@ -3737,7 +3728,7 @@
         <v>21</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>23</v>
@@ -3758,10 +3749,10 @@
         <v>2</v>
       </c>
       <c r="J65" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K65" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L65" s="15"/>
       <c r="M65" s="16"/>
@@ -3779,7 +3770,7 @@
         <v>21</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>23</v>
@@ -3800,10 +3791,10 @@
         <v>2</v>
       </c>
       <c r="J66" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L66" s="15"/>
       <c r="M66" s="16"/>
@@ -3821,7 +3812,7 @@
         <v>21</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>23</v>
@@ -3842,10 +3833,10 @@
         <v>2</v>
       </c>
       <c r="J67" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K67" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L67" s="15"/>
       <c r="M67" s="16"/>
@@ -3863,7 +3854,7 @@
         <v>21</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>23</v>
@@ -3884,10 +3875,10 @@
         <v>2</v>
       </c>
       <c r="J68" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K68" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L68" s="15"/>
       <c r="M68" s="16"/>
@@ -3905,7 +3896,7 @@
         <v>21</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>23</v>
@@ -3926,10 +3917,10 @@
         <v>2</v>
       </c>
       <c r="J69" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L69" s="15"/>
       <c r="M69" s="16"/>
@@ -3947,7 +3938,7 @@
         <v>21</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>23</v>
@@ -3968,10 +3959,10 @@
         <v>2</v>
       </c>
       <c r="J70" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K70" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L70" s="15"/>
       <c r="M70" s="15"/>
@@ -3989,7 +3980,7 @@
         <v>21</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>23</v>
@@ -4010,10 +4001,10 @@
         <v>2</v>
       </c>
       <c r="J71" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L71" s="15"/>
       <c r="M71" s="15"/>
@@ -4031,7 +4022,7 @@
         <v>21</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>23</v>
@@ -4052,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="J72" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K72" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
@@ -4073,7 +4064,7 @@
         <v>21</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
@@ -4105,7 +4096,7 @@
         <v>21</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
@@ -4137,7 +4128,7 @@
         <v>21</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
@@ -4169,7 +4160,7 @@
         <v>21</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
@@ -4201,7 +4192,7 @@
         <v>21</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
@@ -4233,7 +4224,7 @@
         <v>21</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
@@ -4265,7 +4256,7 @@
         <v>21</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
@@ -4297,7 +4288,7 @@
         <v>21</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
@@ -4329,7 +4320,7 @@
         <v>21</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
@@ -4341,7 +4332,7 @@
         <v>5</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J81" s="15"/>
       <c r="K81" s="15"/>
@@ -4361,7 +4352,7 @@
         <v>21</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
@@ -4393,7 +4384,7 @@
         <v>21</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
@@ -4425,7 +4416,7 @@
         <v>21</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
@@ -4457,7 +4448,7 @@
         <v>21</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
@@ -4489,7 +4480,7 @@
         <v>21</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
@@ -4521,7 +4512,7 @@
         <v>21</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
@@ -4553,7 +4544,7 @@
         <v>21</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
@@ -4585,7 +4576,7 @@
         <v>21</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D89" s="16" t="s">
         <v>23</v>
@@ -4607,10 +4598,10 @@
         <v>91</v>
       </c>
       <c r="K89" s="15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L89" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M89" s="15"/>
       <c r="N89" s="19"/>
@@ -4627,7 +4618,7 @@
         <v>21</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>23</v>
@@ -4649,10 +4640,10 @@
         <v>91</v>
       </c>
       <c r="K90" s="15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L90" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M90" s="15"/>
       <c r="N90" s="19"/>
@@ -4669,7 +4660,7 @@
         <v>21</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>23</v>
@@ -4691,10 +4682,10 @@
         <v>91</v>
       </c>
       <c r="K91" s="15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L91" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M91" s="15"/>
       <c r="N91" s="19"/>
@@ -4711,7 +4702,7 @@
         <v>21</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>23</v>
@@ -4733,10 +4724,10 @@
         <v>91</v>
       </c>
       <c r="K92" s="15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L92" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M92" s="15"/>
       <c r="N92" s="19"/>
@@ -4753,7 +4744,7 @@
         <v>21</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>23</v>
@@ -4775,10 +4766,10 @@
         <v>91</v>
       </c>
       <c r="K93" s="15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L93" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M93" s="15"/>
       <c r="N93" s="19"/>
@@ -4795,7 +4786,7 @@
         <v>21</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>23</v>
@@ -4817,10 +4808,10 @@
         <v>91</v>
       </c>
       <c r="K94" s="15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L94" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M94" s="15"/>
       <c r="N94" s="19"/>
@@ -4837,7 +4828,7 @@
         <v>21</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
@@ -4869,7 +4860,7 @@
         <v>21</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
@@ -4881,7 +4872,7 @@
         <v>5</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J96" s="15"/>
       <c r="K96" s="15"/>
@@ -4901,7 +4892,7 @@
         <v>21</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
@@ -4933,7 +4924,7 @@
         <v>21</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
@@ -4965,7 +4956,7 @@
         <v>21</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
@@ -4997,7 +4988,7 @@
         <v>21</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
@@ -5009,7 +5000,7 @@
         <v>5</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J100" s="15"/>
       <c r="K100" s="15"/>
@@ -5029,7 +5020,7 @@
         <v>21</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
@@ -5061,7 +5052,7 @@
         <v>21</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
@@ -5093,7 +5084,7 @@
         <v>21</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
@@ -5125,7 +5116,7 @@
         <v>21</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
@@ -5157,7 +5148,7 @@
         <v>21</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D105" s="18"/>
       <c r="E105" s="18"/>
@@ -5189,7 +5180,7 @@
         <v>21</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
@@ -5221,7 +5212,7 @@
         <v>21</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
@@ -5253,7 +5244,7 @@
         <v>21</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
@@ -5285,7 +5276,7 @@
         <v>21</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
@@ -5317,7 +5308,7 @@
         <v>21</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
@@ -5349,7 +5340,7 @@
         <v>21</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
@@ -5381,7 +5372,7 @@
         <v>21</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
@@ -5413,7 +5404,7 @@
         <v>21</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
@@ -5445,7 +5436,7 @@
         <v>21</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
@@ -5477,7 +5468,7 @@
         <v>21</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
@@ -5509,7 +5500,7 @@
         <v>21</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
@@ -5541,7 +5532,7 @@
         <v>21</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>22</v>
@@ -5560,13 +5551,13 @@
         <v>2</v>
       </c>
       <c r="J117" s="27" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K117" s="18" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L117" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M117" s="18"/>
       <c r="N117" s="18"/>
@@ -5583,7 +5574,7 @@
         <v>21</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D118" s="16" t="s">
         <v>22</v>
@@ -5602,13 +5593,13 @@
         <v>2</v>
       </c>
       <c r="J118" s="27" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K118" s="18" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L118" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M118" s="18"/>
       <c r="N118" s="18"/>
@@ -5625,7 +5616,7 @@
         <v>21</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D119" s="18" t="s">
         <v>22</v>
@@ -5644,13 +5635,13 @@
         <v>2</v>
       </c>
       <c r="J119" s="27" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K119" s="18" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L119" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M119" s="18"/>
       <c r="N119" s="18"/>
@@ -5667,7 +5658,7 @@
         <v>21</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D120" s="18" t="s">
         <v>23</v>
@@ -5686,13 +5677,13 @@
         <v>2</v>
       </c>
       <c r="J120" s="27" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K120" s="18" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L120" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M120" s="18"/>
       <c r="N120" s="18"/>
@@ -5709,7 +5700,7 @@
         <v>21</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D121" s="18" t="s">
         <v>23</v>
@@ -5728,13 +5719,13 @@
         <v>2</v>
       </c>
       <c r="J121" s="27" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K121" s="18" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L121" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M121" s="18"/>
       <c r="N121" s="18"/>
@@ -5751,7 +5742,7 @@
         <v>21</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D122" s="21"/>
       <c r="E122" s="21"/>
@@ -5783,7 +5774,7 @@
         <v>21</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D123" s="21"/>
       <c r="E123" s="21"/>
@@ -5815,7 +5806,7 @@
         <v>21</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D124" s="21"/>
       <c r="E124" s="21"/>
@@ -5847,7 +5838,7 @@
         <v>21</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D125" s="21"/>
       <c r="E125" s="21"/>
@@ -5879,7 +5870,7 @@
         <v>21</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D126" s="21"/>
       <c r="E126" s="21"/>
@@ -5911,7 +5902,7 @@
         <v>21</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D127" s="21"/>
       <c r="E127" s="21"/>
@@ -5943,7 +5934,7 @@
         <v>21</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D128" s="21"/>
       <c r="E128" s="21"/>
@@ -5975,7 +5966,7 @@
         <v>21</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D129" s="21"/>
       <c r="E129" s="21"/>
@@ -6007,7 +5998,7 @@
         <v>21</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D130" s="21"/>
       <c r="E130" s="21"/>
@@ -6039,7 +6030,7 @@
         <v>21</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D131" s="21"/>
       <c r="E131" s="21"/>
@@ -6071,7 +6062,7 @@
         <v>21</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D132" s="21"/>
       <c r="E132" s="21"/>
@@ -6103,7 +6094,7 @@
         <v>21</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D133" s="21"/>
       <c r="E133" s="21"/>
@@ -6135,7 +6126,7 @@
         <v>21</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D134" s="21"/>
       <c r="E134" s="21"/>
@@ -6167,7 +6158,7 @@
         <v>21</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D135" s="18"/>
       <c r="E135" s="18"/>
@@ -6199,7 +6190,7 @@
         <v>21</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D136" s="18"/>
       <c r="E136" s="18"/>
@@ -6231,7 +6222,7 @@
         <v>21</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D137" s="18"/>
       <c r="E137" s="18"/>
@@ -6263,7 +6254,7 @@
         <v>21</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D138" s="18"/>
       <c r="E138" s="18"/>
@@ -6295,7 +6286,7 @@
         <v>21</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D139" s="18"/>
       <c r="E139" s="18"/>
@@ -6327,7 +6318,7 @@
         <v>21</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="18"/>
@@ -6359,7 +6350,7 @@
         <v>21</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D141" s="18"/>
       <c r="E141" s="18"/>
@@ -6391,7 +6382,7 @@
         <v>21</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D142" s="18" t="s">
         <v>22</v>
@@ -6410,13 +6401,13 @@
         <v>2</v>
       </c>
       <c r="J142" s="18" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K142" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L142" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
@@ -6433,7 +6424,7 @@
         <v>21</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D143" s="18" t="s">
         <v>22</v>
@@ -6452,13 +6443,13 @@
         <v>2</v>
       </c>
       <c r="J143" s="18" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K143" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L143" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M143" s="18" t="s">
         <v>114</v>
@@ -6477,7 +6468,7 @@
         <v>21</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D144" s="18" t="s">
         <v>22</v>
@@ -6496,13 +6487,13 @@
         <v>2</v>
       </c>
       <c r="J144" s="18" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K144" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L144" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M144" s="18" t="s">
         <v>114</v>
@@ -6521,7 +6512,7 @@
         <v>21</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D145" s="18" t="s">
         <v>22</v>
@@ -6540,13 +6531,13 @@
         <v>2</v>
       </c>
       <c r="J145" s="18" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K145" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L145" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M145" s="18" t="s">
         <v>114</v>
@@ -6565,7 +6556,7 @@
         <v>21</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D146" s="18" t="s">
         <v>22</v>
@@ -6584,13 +6575,13 @@
         <v>2</v>
       </c>
       <c r="J146" s="18" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K146" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L146" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M146" s="18" t="s">
         <v>114</v>
@@ -6609,7 +6600,7 @@
         <v>21</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D147" s="18" t="s">
         <v>23</v>
@@ -6628,13 +6619,13 @@
         <v>2</v>
       </c>
       <c r="J147" s="18" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K147" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L147" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M147" s="18" t="s">
         <v>114</v>
@@ -6653,7 +6644,7 @@
         <v>21</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D148" s="18" t="s">
         <v>22</v>
@@ -6675,10 +6666,10 @@
         <v>116</v>
       </c>
       <c r="K148" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L148" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M148" s="11"/>
       <c r="N148" s="18"/>
@@ -6695,7 +6686,7 @@
         <v>21</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D149" s="18" t="s">
         <v>22</v>
@@ -6717,10 +6708,10 @@
         <v>116</v>
       </c>
       <c r="K149" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L149" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M149" s="11"/>
       <c r="N149" s="18"/>
@@ -6737,7 +6728,7 @@
         <v>21</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D150" s="18" t="s">
         <v>22</v>
@@ -6759,10 +6750,10 @@
         <v>116</v>
       </c>
       <c r="K150" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L150" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M150" s="11"/>
       <c r="N150" s="18"/>
@@ -6779,7 +6770,7 @@
         <v>21</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D151" s="18" t="s">
         <v>22</v>
@@ -6801,10 +6792,10 @@
         <v>116</v>
       </c>
       <c r="K151" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L151" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M151" s="11"/>
       <c r="N151" s="18"/>
@@ -6821,7 +6812,7 @@
         <v>21</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D152" s="18" t="s">
         <v>22</v>
@@ -6843,10 +6834,10 @@
         <v>116</v>
       </c>
       <c r="K152" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L152" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M152" s="11"/>
       <c r="N152" s="18"/>
@@ -6863,7 +6854,7 @@
         <v>21</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D153" s="18" t="s">
         <v>22</v>
@@ -6885,10 +6876,10 @@
         <v>116</v>
       </c>
       <c r="K153" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L153" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M153" s="11"/>
       <c r="N153" s="18"/>
@@ -6905,7 +6896,7 @@
         <v>21</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D154" s="18" t="s">
         <v>22</v>
@@ -6927,10 +6918,10 @@
         <v>116</v>
       </c>
       <c r="K154" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L154" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M154" s="11"/>
       <c r="N154" s="18"/>
@@ -6947,7 +6938,7 @@
         <v>21</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D155" s="18" t="s">
         <v>23</v>
@@ -6969,10 +6960,10 @@
         <v>116</v>
       </c>
       <c r="K155" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L155" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M155" s="11"/>
       <c r="N155" s="18"/>
@@ -6989,7 +6980,7 @@
         <v>21</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D156" s="18" t="s">
         <v>23</v>
@@ -7011,10 +7002,10 @@
         <v>116</v>
       </c>
       <c r="K156" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L156" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M156" s="11"/>
       <c r="N156" s="18"/>
@@ -7031,7 +7022,7 @@
         <v>21</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D157" s="18" t="s">
         <v>23</v>
@@ -7053,10 +7044,10 @@
         <v>116</v>
       </c>
       <c r="K157" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L157" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M157" s="11"/>
       <c r="N157" s="18"/>
@@ -7073,7 +7064,7 @@
         <v>21</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D158" s="18" t="s">
         <v>22</v>
@@ -7092,13 +7083,13 @@
         <v>2</v>
       </c>
       <c r="J158" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K158" s="18" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L158" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
@@ -7115,7 +7106,7 @@
         <v>21</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D159" s="18" t="s">
         <v>22</v>
@@ -7134,13 +7125,13 @@
         <v>2</v>
       </c>
       <c r="J159" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K159" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L159" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
@@ -7157,7 +7148,7 @@
         <v>21</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D160" s="18" t="s">
         <v>22</v>
@@ -7176,13 +7167,13 @@
         <v>2</v>
       </c>
       <c r="J160" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K160" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L160" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M160" s="18"/>
       <c r="N160" s="18"/>
@@ -7199,7 +7190,7 @@
         <v>21</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D161" s="18" t="s">
         <v>22</v>
@@ -7218,13 +7209,13 @@
         <v>2</v>
       </c>
       <c r="J161" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K161" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L161" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M161" s="18"/>
       <c r="N161" s="18"/>
@@ -7241,7 +7232,7 @@
         <v>21</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D162" s="18" t="s">
         <v>22</v>
@@ -7260,13 +7251,13 @@
         <v>2</v>
       </c>
       <c r="J162" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K162" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L162" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M162" s="18"/>
       <c r="N162" s="18"/>
@@ -7283,7 +7274,7 @@
         <v>21</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D163" s="18" t="s">
         <v>22</v>
@@ -7302,13 +7293,13 @@
         <v>2</v>
       </c>
       <c r="J163" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K163" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L163" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M163" s="18"/>
       <c r="N163" s="18"/>
@@ -7325,7 +7316,7 @@
         <v>21</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D164" s="18" t="s">
         <v>23</v>
@@ -7346,13 +7337,13 @@
         <v>2</v>
       </c>
       <c r="J164" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K164" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L164" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M164" s="18"/>
       <c r="N164" s="18"/>
@@ -7369,7 +7360,7 @@
         <v>21</v>
       </c>
       <c r="C165" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D165" s="18" t="s">
         <v>23</v>
@@ -7388,13 +7379,13 @@
         <v>2</v>
       </c>
       <c r="J165" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K165" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L165" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M165" s="18"/>
       <c r="N165" s="18"/>
@@ -7411,7 +7402,7 @@
         <v>21</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D166" s="18" t="s">
         <v>23</v>
@@ -7430,13 +7421,13 @@
         <v>2</v>
       </c>
       <c r="J166" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K166" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L166" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M166" s="18"/>
       <c r="N166" s="18"/>
@@ -7453,13 +7444,13 @@
         <v>21</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>307</v>
+        <v>239</v>
       </c>
       <c r="D167" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="F167" s="16" t="s">
         <v>25</v>
@@ -7474,13 +7465,13 @@
         <v>2</v>
       </c>
       <c r="J167" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K167" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L167" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M167" s="18"/>
       <c r="N167" s="18"/>
@@ -7497,16 +7488,16 @@
         <v>21</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E168" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F168" s="16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G168" s="15" t="s">
         <v>115</v>
@@ -7518,13 +7509,13 @@
         <v>2</v>
       </c>
       <c r="J168" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K168" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L168" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M168" s="18"/>
       <c r="N168" s="18"/>
@@ -7541,17 +7532,15 @@
         <v>21</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D169" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E169" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F169" s="16" t="s">
-        <v>39</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="D169" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E169" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F169" s="16"/>
       <c r="G169" s="15" t="s">
         <v>115</v>
       </c>
@@ -7562,13 +7551,13 @@
         <v>2</v>
       </c>
       <c r="J169" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K169" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="L169" s="18" t="s">
-        <v>122</v>
+      <c r="L169" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="M169" s="18"/>
       <c r="N169" s="18"/>
@@ -7604,13 +7593,13 @@
         <v>2</v>
       </c>
       <c r="J170" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K170" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L170" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M170" s="18"/>
       <c r="N170" s="18"/>
@@ -7627,15 +7616,15 @@
         <v>21</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D171" s="21" t="s">
-        <v>23</v>
+        <v>164</v>
+      </c>
+      <c r="D171" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="E171" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F171" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="F171" s="21"/>
       <c r="G171" s="15" t="s">
         <v>115</v>
       </c>
@@ -7646,18 +7635,18 @@
         <v>2</v>
       </c>
       <c r="J171" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K171" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="L171" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M171" s="18"/>
+      <c r="L171" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M171" s="11"/>
       <c r="N171" s="18"/>
-      <c r="O171" s="18">
-        <v>26878268</v>
+      <c r="O171" s="22">
+        <v>27003037</v>
       </c>
       <c r="P171" s="18"/>
     </row>
@@ -7669,15 +7658,15 @@
         <v>21</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D172" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D172" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E172" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F172" s="21"/>
+      <c r="F172" s="16"/>
       <c r="G172" s="15" t="s">
         <v>115</v>
       </c>
@@ -7688,13 +7677,13 @@
         <v>2</v>
       </c>
       <c r="J172" s="18" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K172" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L172" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M172" s="11"/>
       <c r="N172" s="18"/>
@@ -7711,15 +7700,15 @@
         <v>21</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D173" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D173" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E173" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F173" s="16"/>
+      <c r="F173" s="21"/>
       <c r="G173" s="15" t="s">
         <v>115</v>
       </c>
@@ -7730,13 +7719,13 @@
         <v>2</v>
       </c>
       <c r="J173" s="18" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K173" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L173" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M173" s="11"/>
       <c r="N173" s="18"/>
@@ -7753,15 +7742,15 @@
         <v>21</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D174" s="18" t="s">
-        <v>22</v>
+        <v>163</v>
+      </c>
+      <c r="D174" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="E174" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F174" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="F174" s="16"/>
       <c r="G174" s="15" t="s">
         <v>115</v>
       </c>
@@ -7772,13 +7761,13 @@
         <v>2</v>
       </c>
       <c r="J174" s="18" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K174" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L174" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M174" s="11"/>
       <c r="N174" s="18"/>
@@ -7795,15 +7784,15 @@
         <v>21</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D175" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E175" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F175" s="16"/>
+      <c r="E175" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F175" s="21"/>
       <c r="G175" s="15" t="s">
         <v>115</v>
       </c>
@@ -7814,13 +7803,13 @@
         <v>2</v>
       </c>
       <c r="J175" s="18" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K175" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L175" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M175" s="11"/>
       <c r="N175" s="18"/>
@@ -7837,37 +7826,39 @@
         <v>21</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="D176" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E176" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F176" s="21"/>
+      <c r="E176" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F176" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="G176" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="H176" s="18" t="s">
+      <c r="H176" s="21" t="s">
         <v>1</v>
       </c>
       <c r="I176" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J176" s="18" t="s">
-        <v>327</v>
+      <c r="J176" s="34" t="s">
+        <v>322</v>
       </c>
       <c r="K176" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="L176" s="18" t="s">
-        <v>123</v>
+      <c r="L176" s="21" t="s">
+        <v>124</v>
       </c>
       <c r="M176" s="11"/>
       <c r="N176" s="18"/>
       <c r="O176" s="22">
-        <v>27003037</v>
+        <v>27009831</v>
       </c>
       <c r="P176" s="18"/>
     </row>
@@ -7879,17 +7870,15 @@
         <v>21</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="D177" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E177" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F177" s="16" t="s">
-        <v>39</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E177" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F177" s="11"/>
       <c r="G177" s="15" t="s">
         <v>115</v>
       </c>
@@ -7900,20 +7889,20 @@
         <v>2</v>
       </c>
       <c r="J177" s="34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K177" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L177" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M177" s="11"/>
-      <c r="N177" s="18"/>
+      <c r="N177" s="11"/>
       <c r="O177" s="22">
         <v>27009831</v>
       </c>
-      <c r="P177" s="18"/>
+      <c r="P177" s="11"/>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="32" t="s">
@@ -7923,7 +7912,7 @@
         <v>21</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="D178" s="11" t="s">
         <v>23</v>
@@ -7942,13 +7931,13 @@
         <v>2</v>
       </c>
       <c r="J178" s="34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K178" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L178" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M178" s="11"/>
       <c r="N178" s="11"/>
@@ -7965,7 +7954,7 @@
         <v>21</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D179" s="11" t="s">
         <v>23</v>
@@ -7973,7 +7962,9 @@
       <c r="E179" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F179" s="11"/>
+      <c r="F179" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G179" s="15" t="s">
         <v>115</v>
       </c>
@@ -7984,13 +7975,13 @@
         <v>2</v>
       </c>
       <c r="J179" s="34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K179" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L179" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M179" s="11"/>
       <c r="N179" s="11"/>
@@ -8007,7 +7998,7 @@
         <v>21</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D180" s="11" t="s">
         <v>23</v>
@@ -8015,9 +8006,7 @@
       <c r="E180" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F180" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="F180" s="11"/>
       <c r="G180" s="15" t="s">
         <v>115</v>
       </c>
@@ -8028,13 +8017,13 @@
         <v>2</v>
       </c>
       <c r="J180" s="34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K180" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L180" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M180" s="11"/>
       <c r="N180" s="11"/>
@@ -8051,10 +8040,10 @@
         <v>21</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E181" s="11" t="s">
         <v>22</v>
@@ -8070,13 +8059,13 @@
         <v>2</v>
       </c>
       <c r="J181" s="34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K181" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L181" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M181" s="11"/>
       <c r="N181" s="11"/>
@@ -8093,13 +8082,13 @@
         <v>21</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="D182" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F182" s="11"/>
       <c r="G182" s="15" t="s">
@@ -8112,13 +8101,13 @@
         <v>2</v>
       </c>
       <c r="J182" s="34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K182" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L182" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M182" s="11"/>
       <c r="N182" s="11"/>
@@ -8135,7 +8124,7 @@
         <v>21</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D183" s="11" t="s">
         <v>22</v>
@@ -8154,13 +8143,13 @@
         <v>2</v>
       </c>
       <c r="J183" s="34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K183" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L183" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M183" s="11"/>
       <c r="N183" s="11"/>
@@ -8177,7 +8166,7 @@
         <v>21</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="D184" s="11" t="s">
         <v>22</v>
@@ -8196,13 +8185,13 @@
         <v>2</v>
       </c>
       <c r="J184" s="34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K184" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L184" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M184" s="11"/>
       <c r="N184" s="11"/>
@@ -8219,7 +8208,7 @@
         <v>21</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="D185" s="11" t="s">
         <v>22</v>
@@ -8238,13 +8227,13 @@
         <v>2</v>
       </c>
       <c r="J185" s="34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K185" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L185" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M185" s="11"/>
       <c r="N185" s="11"/>
@@ -8261,15 +8250,17 @@
         <v>21</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>308</v>
+        <v>166</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F186" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F186" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="G186" s="15" t="s">
         <v>115</v>
       </c>
@@ -8280,13 +8271,13 @@
         <v>2</v>
       </c>
       <c r="J186" s="34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K186" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L186" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M186" s="11"/>
       <c r="N186" s="11"/>
@@ -8303,7 +8294,7 @@
         <v>21</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="D187" s="11" t="s">
         <v>23</v>
@@ -8312,7 +8303,7 @@
         <v>22</v>
       </c>
       <c r="F187" s="11" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="G187" s="15" t="s">
         <v>115</v>
@@ -8324,13 +8315,13 @@
         <v>2</v>
       </c>
       <c r="J187" s="34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K187" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L187" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M187" s="11"/>
       <c r="N187" s="11"/>
@@ -8350,14 +8341,12 @@
         <v>245</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F188" s="11" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F188" s="11"/>
       <c r="G188" s="15" t="s">
         <v>115</v>
       </c>
@@ -8368,13 +8357,13 @@
         <v>2</v>
       </c>
       <c r="J188" s="34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K188" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L188" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M188" s="11"/>
       <c r="N188" s="11"/>
@@ -8384,20 +8373,20 @@
       <c r="P188" s="11"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A189" s="32" t="s">
+      <c r="A189" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B189" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C189" s="21" t="s">
-        <v>246</v>
+      <c r="C189" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="D189" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E189" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F189" s="11"/>
       <c r="G189" s="15" t="s">
@@ -8409,19 +8398,19 @@
       <c r="I189" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J189" s="34" t="s">
+      <c r="J189" s="11" t="s">
         <v>325</v>
       </c>
       <c r="K189" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="L189" s="21" t="s">
+      <c r="L189" s="11" t="s">
         <v>125</v>
       </c>
       <c r="M189" s="11"/>
       <c r="N189" s="11"/>
-      <c r="O189" s="22">
-        <v>27009831</v>
+      <c r="O189" s="11">
+        <v>27597318</v>
       </c>
       <c r="P189" s="11"/>
     </row>
@@ -8433,7 +8422,7 @@
         <v>21</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D190" s="11" t="s">
         <v>22</v>
@@ -8452,13 +8441,13 @@
         <v>2</v>
       </c>
       <c r="J190" s="11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K190" s="18" t="s">
         <v>117</v>
       </c>
       <c r="L190" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M190" s="11"/>
       <c r="N190" s="11"/>
@@ -8475,10 +8464,10 @@
         <v>21</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E191" s="11" t="s">
         <v>22</v>
@@ -8494,7 +8483,7 @@
         <v>2</v>
       </c>
       <c r="J191" s="11" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K191" s="18" t="s">
         <v>117</v>
@@ -8505,25 +8494,25 @@
       <c r="M191" s="11"/>
       <c r="N191" s="11"/>
       <c r="O191" s="11">
-        <v>27597318</v>
+        <v>27236547</v>
       </c>
       <c r="P191" s="11"/>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="9" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B192" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F192" s="11"/>
       <c r="G192" s="15" t="s">
@@ -8536,30 +8525,30 @@
         <v>2</v>
       </c>
       <c r="J192" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="K192" s="18" t="s">
-        <v>117</v>
+        <v>327</v>
+      </c>
+      <c r="K192" s="11" t="s">
+        <v>354</v>
       </c>
       <c r="L192" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M192" s="11"/>
       <c r="N192" s="11"/>
       <c r="O192" s="11">
-        <v>27236547</v>
+        <v>27605597</v>
       </c>
       <c r="P192" s="11"/>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B193" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D193" s="11" t="s">
         <v>22</v>
@@ -8578,13 +8567,13 @@
         <v>2</v>
       </c>
       <c r="J193" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K193" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L193" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M193" s="11"/>
       <c r="N193" s="11"/>
@@ -8601,13 +8590,13 @@
         <v>21</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>165</v>
+        <v>247</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F194" s="11"/>
       <c r="G194" s="15" t="s">
@@ -8620,13 +8609,13 @@
         <v>2</v>
       </c>
       <c r="J194" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K194" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L194" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M194" s="11"/>
       <c r="N194" s="11"/>
@@ -8643,13 +8632,13 @@
         <v>21</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F195" s="11"/>
       <c r="G195" s="15" t="s">
@@ -8662,13 +8651,13 @@
         <v>2</v>
       </c>
       <c r="J195" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K195" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L195" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M195" s="11"/>
       <c r="N195" s="11"/>
@@ -8685,13 +8674,13 @@
         <v>21</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>165</v>
+        <v>248</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E196" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F196" s="11"/>
       <c r="G196" s="15" t="s">
@@ -8704,13 +8693,13 @@
         <v>2</v>
       </c>
       <c r="J196" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K196" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L196" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M196" s="11"/>
       <c r="N196" s="11"/>
@@ -8730,10 +8719,10 @@
         <v>249</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F197" s="11"/>
       <c r="G197" s="15" t="s">
@@ -8746,13 +8735,13 @@
         <v>2</v>
       </c>
       <c r="J197" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K197" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L197" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M197" s="11"/>
       <c r="N197" s="11"/>
@@ -8769,15 +8758,17 @@
         <v>21</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E198" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F198" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F198" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="G198" s="15" t="s">
         <v>115</v>
       </c>
@@ -8788,13 +8779,13 @@
         <v>2</v>
       </c>
       <c r="J198" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K198" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L198" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M198" s="11"/>
       <c r="N198" s="11"/>
@@ -8805,13 +8796,13 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B199" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="D199" s="11" t="s">
         <v>23</v>
@@ -8832,13 +8823,13 @@
         <v>2</v>
       </c>
       <c r="J199" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K199" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L199" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M199" s="11"/>
       <c r="N199" s="11"/>
@@ -8858,14 +8849,12 @@
         <v>251</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F200" s="11" t="s">
-        <v>24</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F200" s="11"/>
       <c r="G200" s="15" t="s">
         <v>115</v>
       </c>
@@ -8876,13 +8865,13 @@
         <v>2</v>
       </c>
       <c r="J200" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K200" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L200" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M200" s="11"/>
       <c r="N200" s="11"/>
@@ -8918,13 +8907,13 @@
         <v>2</v>
       </c>
       <c r="J201" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K201" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L201" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M201" s="11"/>
       <c r="N201" s="11"/>
@@ -8935,7 +8924,7 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="B202" s="21" t="s">
         <v>21</v>
@@ -8960,13 +8949,13 @@
         <v>2</v>
       </c>
       <c r="J202" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K202" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L202" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M202" s="11"/>
       <c r="N202" s="11"/>
@@ -8977,38 +8966,40 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B203" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E203" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F203" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G203" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H203" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I203" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J203" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="K203" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="L203" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="B203" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C203" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="D203" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E203" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F203" s="11"/>
-      <c r="G203" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H203" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I203" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J203" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="K203" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="L203" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="M203" s="11"/>
       <c r="N203" s="11"/>
@@ -9019,40 +9010,34 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B204" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D204" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E204" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F204" s="11" t="s">
-        <v>128</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11"/>
       <c r="G204" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="H204" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I204" s="7" t="s">
-        <v>2</v>
+      <c r="H204" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I204" s="9">
+        <v>400</v>
       </c>
       <c r="J204" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K204" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L204" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M204" s="11"/>
       <c r="N204" s="11"/>
@@ -9069,7 +9054,7 @@
         <v>21</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="D205" s="11"/>
       <c r="E205" s="11"/>
@@ -9081,16 +9066,16 @@
         <v>5</v>
       </c>
       <c r="I205" s="9">
-        <v>400</v>
+        <v>335</v>
       </c>
       <c r="J205" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K205" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L205" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M205" s="11"/>
       <c r="N205" s="11"/>
@@ -9107,7 +9092,7 @@
         <v>21</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D206" s="11"/>
       <c r="E206" s="11"/>
@@ -9119,16 +9104,16 @@
         <v>5</v>
       </c>
       <c r="I206" s="9">
-        <v>335</v>
+        <v>1750</v>
       </c>
       <c r="J206" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K206" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L206" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M206" s="11"/>
       <c r="N206" s="11"/>
@@ -9139,13 +9124,13 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B207" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D207" s="11"/>
       <c r="E207" s="11"/>
@@ -9157,16 +9142,16 @@
         <v>5</v>
       </c>
       <c r="I207" s="9">
-        <v>1750</v>
+        <v>3200</v>
       </c>
       <c r="J207" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K207" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L207" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M207" s="11"/>
       <c r="N207" s="11"/>
@@ -9183,7 +9168,7 @@
         <v>21</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
@@ -9195,16 +9180,16 @@
         <v>5</v>
       </c>
       <c r="I208" s="9">
-        <v>3200</v>
+        <v>650</v>
       </c>
       <c r="J208" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K208" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L208" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M208" s="11"/>
       <c r="N208" s="11"/>
@@ -9221,7 +9206,7 @@
         <v>21</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D209" s="11"/>
       <c r="E209" s="11"/>
@@ -9233,16 +9218,16 @@
         <v>5</v>
       </c>
       <c r="I209" s="9">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="J209" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K209" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L209" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M209" s="11"/>
       <c r="N209" s="11"/>
@@ -9271,16 +9256,16 @@
         <v>5</v>
       </c>
       <c r="I210" s="9">
-        <v>1000</v>
+        <v>9300</v>
       </c>
       <c r="J210" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K210" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L210" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M210" s="11"/>
       <c r="N210" s="11"/>
@@ -9291,7 +9276,7 @@
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" s="9" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B211" s="21" t="s">
         <v>21</v>
@@ -9299,31 +9284,35 @@
       <c r="C211" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D211" s="11"/>
-      <c r="E211" s="11"/>
+      <c r="D211" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E211" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="F211" s="11"/>
       <c r="G211" s="15" t="s">
         <v>115</v>
       </c>
       <c r="H211" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I211" s="9">
-        <v>9300</v>
+        <v>1</v>
+      </c>
+      <c r="I211" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="J211" s="11" t="s">
-        <v>330</v>
+        <v>132</v>
       </c>
       <c r="K211" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L211" s="11" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="M211" s="11"/>
       <c r="N211" s="11"/>
       <c r="O211" s="11">
-        <v>27605597</v>
+        <v>28369411</v>
       </c>
       <c r="P211" s="11"/>
     </row>
@@ -9335,7 +9324,7 @@
         <v>21</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>257</v>
+        <v>161</v>
       </c>
       <c r="D212" s="11" t="s">
         <v>23</v>
@@ -9354,10 +9343,10 @@
         <v>2</v>
       </c>
       <c r="J212" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K212" s="11" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L212" s="11" t="s">
         <v>159</v>
@@ -9396,13 +9385,13 @@
         <v>2</v>
       </c>
       <c r="J213" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K213" s="11" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L213" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M213" s="11"/>
       <c r="N213" s="11"/>
@@ -9419,13 +9408,13 @@
         <v>21</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F214" s="11"/>
       <c r="G214" s="15" t="s">
@@ -9438,13 +9427,13 @@
         <v>2</v>
       </c>
       <c r="J214" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K214" s="11" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L214" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M214" s="11"/>
       <c r="N214" s="11"/>
@@ -9461,15 +9450,17 @@
         <v>21</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E215" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F215" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F215" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="G215" s="15" t="s">
         <v>115</v>
       </c>
@@ -9480,13 +9471,13 @@
         <v>2</v>
       </c>
       <c r="J215" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K215" s="11" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L215" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M215" s="11"/>
       <c r="N215" s="11"/>
@@ -9503,7 +9494,7 @@
         <v>21</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D216" s="11" t="s">
         <v>23</v>
@@ -9511,9 +9502,7 @@
       <c r="E216" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F216" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="F216" s="11"/>
       <c r="G216" s="15" t="s">
         <v>115</v>
       </c>
@@ -9524,18 +9513,18 @@
         <v>2</v>
       </c>
       <c r="J216" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="K216" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="L216" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="K216" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="L216" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="M216" s="11"/>
       <c r="N216" s="11"/>
       <c r="O216" s="11">
-        <v>28369411</v>
+        <v>28941023</v>
       </c>
       <c r="P216" s="11"/>
     </row>
@@ -9566,13 +9555,13 @@
         <v>2</v>
       </c>
       <c r="J217" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K217" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L217" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M217" s="11"/>
       <c r="N217" s="11"/>
@@ -9589,7 +9578,7 @@
         <v>21</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="D218" s="11" t="s">
         <v>23</v>
@@ -9608,13 +9597,13 @@
         <v>2</v>
       </c>
       <c r="J218" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K218" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L218" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M218" s="11"/>
       <c r="N218" s="11"/>
@@ -9650,13 +9639,13 @@
         <v>2</v>
       </c>
       <c r="J219" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K219" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L219" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M219" s="11"/>
       <c r="N219" s="11"/>
@@ -9692,13 +9681,13 @@
         <v>2</v>
       </c>
       <c r="J220" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K220" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L220" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M220" s="11"/>
       <c r="N220" s="11"/>
@@ -9715,7 +9704,7 @@
         <v>21</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D221" s="11" t="s">
         <v>23</v>
@@ -9734,13 +9723,13 @@
         <v>2</v>
       </c>
       <c r="J221" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K221" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L221" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M221" s="11"/>
       <c r="N221" s="11"/>
@@ -9776,13 +9765,13 @@
         <v>2</v>
       </c>
       <c r="J222" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K222" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L222" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M222" s="11"/>
       <c r="N222" s="11"/>
@@ -9793,13 +9782,13 @@
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B223" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D223" s="11" t="s">
         <v>23</v>
@@ -9818,13 +9807,13 @@
         <v>2</v>
       </c>
       <c r="J223" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K223" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L223" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M223" s="11"/>
       <c r="N223" s="11"/>
@@ -9860,13 +9849,13 @@
         <v>2</v>
       </c>
       <c r="J224" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K224" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L224" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M224" s="11"/>
       <c r="N224" s="11"/>
@@ -9883,7 +9872,7 @@
         <v>21</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D225" s="11" t="s">
         <v>23</v>
@@ -9902,13 +9891,13 @@
         <v>2</v>
       </c>
       <c r="J225" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K225" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L225" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M225" s="11"/>
       <c r="N225" s="11"/>
@@ -9944,13 +9933,13 @@
         <v>2</v>
       </c>
       <c r="J226" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K226" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L226" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M226" s="11"/>
       <c r="N226" s="11"/>
@@ -9960,14 +9949,14 @@
       <c r="P226" s="11"/>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A227" s="9" t="s">
+      <c r="A227" s="9">
         <v>3</v>
       </c>
       <c r="B227" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D227" s="11" t="s">
         <v>23</v>
@@ -9986,13 +9975,13 @@
         <v>2</v>
       </c>
       <c r="J227" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K227" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L227" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M227" s="11"/>
       <c r="N227" s="11"/>
@@ -10003,13 +9992,13 @@
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B228" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="D228" s="11" t="s">
         <v>23</v>
@@ -10028,13 +10017,13 @@
         <v>2</v>
       </c>
       <c r="J228" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K228" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L228" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M228" s="11"/>
       <c r="N228" s="11"/>
@@ -10051,7 +10040,7 @@
         <v>21</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D229" s="11" t="s">
         <v>23</v>
@@ -10070,13 +10059,13 @@
         <v>2</v>
       </c>
       <c r="J229" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K229" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L229" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M229" s="11"/>
       <c r="N229" s="11"/>
@@ -10087,16 +10076,16 @@
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B230" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E230" s="11" t="s">
         <v>22</v>
@@ -10112,36 +10101,36 @@
         <v>2</v>
       </c>
       <c r="J230" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K230" s="11" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="L230" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M230" s="11"/>
       <c r="N230" s="11"/>
       <c r="O230" s="11">
-        <v>28941023</v>
+        <v>29271114</v>
       </c>
       <c r="P230" s="11"/>
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B231" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D231" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E231" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F231" s="11"/>
       <c r="G231" s="15" t="s">
@@ -10154,13 +10143,13 @@
         <v>2</v>
       </c>
       <c r="J231" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K231" s="11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L231" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M231" s="11"/>
       <c r="N231" s="11"/>
@@ -10170,14 +10159,14 @@
       <c r="P231" s="11"/>
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A232" s="9">
-        <v>4</v>
+      <c r="A232" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="B232" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D232" s="11" t="s">
         <v>22</v>
@@ -10196,13 +10185,13 @@
         <v>2</v>
       </c>
       <c r="J232" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K232" s="11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L232" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M232" s="11"/>
       <c r="N232" s="11"/>
@@ -10219,15 +10208,17 @@
         <v>21</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E233" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F233" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F233" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="G233" s="15" t="s">
         <v>115</v>
       </c>
@@ -10238,13 +10229,13 @@
         <v>2</v>
       </c>
       <c r="J233" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K233" s="11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L233" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M233" s="11"/>
       <c r="N233" s="11"/>
@@ -10254,24 +10245,22 @@
       <c r="P233" s="11"/>
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A234" s="9" t="s">
-        <v>3</v>
+      <c r="A234" s="9">
+        <v>2</v>
       </c>
       <c r="B234" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>309</v>
+        <v>164</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E234" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F234" s="11" t="s">
-        <v>24</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F234" s="11"/>
       <c r="G234" s="15" t="s">
         <v>115</v>
       </c>
@@ -10282,13 +10271,13 @@
         <v>2</v>
       </c>
       <c r="J234" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K234" s="11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L234" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M234" s="11"/>
       <c r="N234" s="11"/>
@@ -10298,14 +10287,14 @@
       <c r="P234" s="11"/>
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A235" s="9">
-        <v>2</v>
+      <c r="A235" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="B235" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D235" s="11" t="s">
         <v>22</v>
@@ -10324,13 +10313,13 @@
         <v>2</v>
       </c>
       <c r="J235" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K235" s="11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L235" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M235" s="11"/>
       <c r="N235" s="11"/>
@@ -10347,15 +10336,17 @@
         <v>21</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F236" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F236" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="G236" s="15" t="s">
         <v>115</v>
       </c>
@@ -10366,13 +10357,13 @@
         <v>2</v>
       </c>
       <c r="J236" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K236" s="11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L236" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M236" s="11"/>
       <c r="N236" s="11"/>
@@ -10383,23 +10374,21 @@
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B237" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E237" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F237" s="11" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F237" s="11"/>
       <c r="G237" s="15" t="s">
         <v>115</v>
       </c>
@@ -10410,13 +10399,13 @@
         <v>2</v>
       </c>
       <c r="J237" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K237" s="11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L237" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M237" s="11"/>
       <c r="N237" s="11"/>
@@ -10436,10 +10425,10 @@
         <v>162</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E238" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F238" s="11"/>
       <c r="G238" s="15" t="s">
@@ -10452,13 +10441,13 @@
         <v>2</v>
       </c>
       <c r="J238" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K238" s="11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L238" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M238" s="11"/>
       <c r="N238" s="11"/>
@@ -10468,20 +10457,20 @@
       <c r="P238" s="11"/>
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A239" s="9" t="s">
+      <c r="A239" s="9">
         <v>4</v>
       </c>
       <c r="B239" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E239" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F239" s="11"/>
       <c r="G239" s="15" t="s">
@@ -10494,13 +10483,13 @@
         <v>2</v>
       </c>
       <c r="J239" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K239" s="11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L239" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M239" s="11"/>
       <c r="N239" s="11"/>
@@ -10517,15 +10506,17 @@
         <v>21</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E240" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F240" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F240" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="G240" s="15" t="s">
         <v>115</v>
       </c>
@@ -10536,13 +10527,13 @@
         <v>2</v>
       </c>
       <c r="J240" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K240" s="11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L240" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M240" s="11"/>
       <c r="N240" s="11"/>
@@ -10552,46 +10543,34 @@
       <c r="P240" s="11"/>
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A241" s="9">
+      <c r="A241" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B241" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D241" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E241" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F241" s="11" t="s">
-        <v>135</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11"/>
+      <c r="F241" s="11"/>
       <c r="G241" s="15" t="s">
         <v>115</v>
       </c>
       <c r="H241" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I241" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J241" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I241" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="K241" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="L241" s="11" t="s">
-        <v>136</v>
-      </c>
+      <c r="J241" s="11"/>
+      <c r="K241" s="11"/>
+      <c r="L241" s="11"/>
       <c r="M241" s="11"/>
       <c r="N241" s="11"/>
       <c r="O241" s="11">
-        <v>29271114</v>
+        <v>29274866</v>
       </c>
       <c r="P241" s="11"/>
     </row>
@@ -10615,7 +10594,7 @@
         <v>5</v>
       </c>
       <c r="I242" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J242" s="11"/>
       <c r="K242" s="11"/>
@@ -10647,7 +10626,7 @@
         <v>5</v>
       </c>
       <c r="I243" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J243" s="11"/>
       <c r="K243" s="11"/>
@@ -10667,7 +10646,7 @@
         <v>21</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D244" s="11"/>
       <c r="E244" s="11"/>
@@ -10679,7 +10658,7 @@
         <v>5</v>
       </c>
       <c r="I244" s="10" t="s">
-        <v>347</v>
+        <v>31</v>
       </c>
       <c r="J244" s="11"/>
       <c r="K244" s="11"/>
@@ -10693,13 +10672,13 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B245" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D245" s="11"/>
       <c r="E245" s="11"/>
@@ -10711,7 +10690,7 @@
         <v>5</v>
       </c>
       <c r="I245" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J245" s="11"/>
       <c r="K245" s="11"/>
@@ -10763,7 +10742,7 @@
         <v>21</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="D247" s="11"/>
       <c r="E247" s="11"/>
@@ -10775,7 +10754,7 @@
         <v>5</v>
       </c>
       <c r="I247" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J247" s="11"/>
       <c r="K247" s="11"/>
@@ -10795,7 +10774,7 @@
         <v>21</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="D248" s="11"/>
       <c r="E248" s="11"/>
@@ -10807,7 +10786,7 @@
         <v>5</v>
       </c>
       <c r="I248" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J248" s="11"/>
       <c r="K248" s="11"/>
@@ -10821,13 +10800,13 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B249" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="D249" s="11"/>
       <c r="E249" s="11"/>
@@ -10839,7 +10818,7 @@
         <v>5</v>
       </c>
       <c r="I249" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J249" s="11"/>
       <c r="K249" s="11"/>
@@ -10853,13 +10832,13 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250" s="9" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B250" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="D250" s="11"/>
       <c r="E250" s="11"/>
@@ -10871,7 +10850,7 @@
         <v>5</v>
       </c>
       <c r="I250" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J250" s="11"/>
       <c r="K250" s="11"/>
@@ -10923,7 +10902,7 @@
         <v>21</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="D252" s="11"/>
       <c r="E252" s="11"/>
@@ -10935,7 +10914,7 @@
         <v>5</v>
       </c>
       <c r="I252" s="10" t="s">
-        <v>30</v>
+        <v>344</v>
       </c>
       <c r="J252" s="11"/>
       <c r="K252" s="11"/>
@@ -10955,7 +10934,7 @@
         <v>21</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c r="D253" s="11"/>
       <c r="E253" s="11"/>
@@ -10967,7 +10946,7 @@
         <v>5</v>
       </c>
       <c r="I253" s="10" t="s">
-        <v>347</v>
+        <v>30</v>
       </c>
       <c r="J253" s="11"/>
       <c r="K253" s="11"/>
@@ -10987,7 +10966,7 @@
         <v>21</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="D254" s="11"/>
       <c r="E254" s="11"/>
@@ -10999,7 +10978,7 @@
         <v>5</v>
       </c>
       <c r="I254" s="10" t="s">
-        <v>30</v>
+        <v>344</v>
       </c>
       <c r="J254" s="11"/>
       <c r="K254" s="11"/>
@@ -11031,7 +11010,7 @@
         <v>5</v>
       </c>
       <c r="I255" s="10" t="s">
-        <v>347</v>
+        <v>30</v>
       </c>
       <c r="J255" s="11"/>
       <c r="K255" s="11"/>
@@ -11051,7 +11030,7 @@
         <v>21</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="D256" s="11"/>
       <c r="E256" s="11"/>
@@ -11063,7 +11042,7 @@
         <v>5</v>
       </c>
       <c r="I256" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J256" s="11"/>
       <c r="K256" s="11"/>
@@ -11095,7 +11074,7 @@
         <v>5</v>
       </c>
       <c r="I257" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J257" s="11"/>
       <c r="K257" s="11"/>
@@ -11115,7 +11094,7 @@
         <v>21</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="D258" s="11"/>
       <c r="E258" s="11"/>
@@ -11141,13 +11120,13 @@
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B259" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="D259" s="11"/>
       <c r="E259" s="11"/>
@@ -11159,7 +11138,7 @@
         <v>5</v>
       </c>
       <c r="I259" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J259" s="11"/>
       <c r="K259" s="11"/>
@@ -11179,7 +11158,7 @@
         <v>21</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D260" s="11"/>
       <c r="E260" s="11"/>
@@ -11191,7 +11170,7 @@
         <v>5</v>
       </c>
       <c r="I260" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J260" s="11"/>
       <c r="K260" s="11"/>
@@ -11211,7 +11190,7 @@
         <v>21</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="D261" s="11"/>
       <c r="E261" s="11"/>
@@ -11269,13 +11248,13 @@
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" s="9" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B263" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>265</v>
+        <v>163</v>
       </c>
       <c r="D263" s="11"/>
       <c r="E263" s="11"/>
@@ -11307,7 +11286,7 @@
         <v>21</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D264" s="11"/>
       <c r="E264" s="11"/>
@@ -11319,7 +11298,7 @@
         <v>5</v>
       </c>
       <c r="I264" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J264" s="11"/>
       <c r="K264" s="11"/>
@@ -11339,7 +11318,7 @@
         <v>21</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D265" s="11"/>
       <c r="E265" s="11"/>
@@ -11371,7 +11350,7 @@
         <v>21</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="D266" s="11"/>
       <c r="E266" s="11"/>
@@ -11397,13 +11376,13 @@
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267" s="9" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B267" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="D267" s="11"/>
       <c r="E267" s="11"/>
@@ -11415,7 +11394,7 @@
         <v>5</v>
       </c>
       <c r="I267" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J267" s="11"/>
       <c r="K267" s="11"/>
@@ -11435,7 +11414,7 @@
         <v>21</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="D268" s="11"/>
       <c r="E268" s="11"/>
@@ -11467,7 +11446,7 @@
         <v>21</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="D269" s="11"/>
       <c r="E269" s="11"/>
@@ -11479,7 +11458,7 @@
         <v>5</v>
       </c>
       <c r="I269" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J269" s="11"/>
       <c r="K269" s="11"/>
@@ -11499,7 +11478,7 @@
         <v>21</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="D270" s="11"/>
       <c r="E270" s="11"/>
@@ -11531,7 +11510,7 @@
         <v>21</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="D271" s="11"/>
       <c r="E271" s="11"/>
@@ -11543,7 +11522,7 @@
         <v>5</v>
       </c>
       <c r="I271" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J271" s="11"/>
       <c r="K271" s="11"/>
@@ -11575,7 +11554,7 @@
         <v>5</v>
       </c>
       <c r="I272" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J272" s="11"/>
       <c r="K272" s="11"/>
@@ -11589,13 +11568,13 @@
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273" s="9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B273" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>269</v>
+        <v>163</v>
       </c>
       <c r="D273" s="11"/>
       <c r="E273" s="11"/>
@@ -11607,7 +11586,7 @@
         <v>5</v>
       </c>
       <c r="I273" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J273" s="11"/>
       <c r="K273" s="11"/>
@@ -11627,7 +11606,7 @@
         <v>21</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D274" s="11"/>
       <c r="E274" s="11"/>
@@ -11659,7 +11638,7 @@
         <v>21</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="D275" s="11"/>
       <c r="E275" s="11"/>
@@ -11685,7 +11664,7 @@
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B276" s="21" t="s">
         <v>21</v>
@@ -11703,7 +11682,7 @@
         <v>5</v>
       </c>
       <c r="I276" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J276" s="11"/>
       <c r="K276" s="11"/>
@@ -11723,7 +11702,7 @@
         <v>21</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="D277" s="11"/>
       <c r="E277" s="11"/>
@@ -11755,7 +11734,7 @@
         <v>21</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D278" s="11"/>
       <c r="E278" s="11"/>
@@ -11767,7 +11746,7 @@
         <v>5</v>
       </c>
       <c r="I278" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J278" s="11"/>
       <c r="K278" s="11"/>
@@ -11787,7 +11766,7 @@
         <v>21</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="D279" s="11"/>
       <c r="E279" s="11"/>
@@ -11799,7 +11778,7 @@
         <v>5</v>
       </c>
       <c r="I279" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J279" s="11"/>
       <c r="K279" s="11"/>
@@ -11845,13 +11824,13 @@
     </row>
     <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A281" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B281" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="D281" s="11"/>
       <c r="E281" s="11"/>
@@ -11883,7 +11862,7 @@
         <v>21</v>
       </c>
       <c r="C282" s="11" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="D282" s="11"/>
       <c r="E282" s="11"/>
@@ -11895,7 +11874,7 @@
         <v>5</v>
       </c>
       <c r="I282" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J282" s="11"/>
       <c r="K282" s="11"/>
@@ -11915,7 +11894,7 @@
         <v>21</v>
       </c>
       <c r="C283" s="11" t="s">
-        <v>164</v>
+        <v>271</v>
       </c>
       <c r="D283" s="11"/>
       <c r="E283" s="11"/>
@@ -11973,13 +11952,13 @@
     </row>
     <row r="285" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A285" s="9" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B285" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>273</v>
+        <v>165</v>
       </c>
       <c r="D285" s="11"/>
       <c r="E285" s="11"/>
@@ -11991,7 +11970,7 @@
         <v>5</v>
       </c>
       <c r="I285" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J285" s="11"/>
       <c r="K285" s="11"/>
@@ -12011,7 +11990,7 @@
         <v>21</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="D286" s="11"/>
       <c r="E286" s="11"/>
@@ -12043,7 +12022,7 @@
         <v>21</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="D287" s="11"/>
       <c r="E287" s="11"/>
@@ -12069,13 +12048,13 @@
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B288" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D288" s="11"/>
       <c r="E288" s="11"/>
@@ -12087,7 +12066,7 @@
         <v>5</v>
       </c>
       <c r="I288" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J288" s="11"/>
       <c r="K288" s="11"/>
@@ -12107,7 +12086,7 @@
         <v>21</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="D289" s="11"/>
       <c r="E289" s="11"/>
@@ -12119,7 +12098,7 @@
         <v>5</v>
       </c>
       <c r="I289" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J289" s="11"/>
       <c r="K289" s="11"/>
@@ -12139,7 +12118,7 @@
         <v>21</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="D290" s="11"/>
       <c r="E290" s="11"/>
@@ -12165,13 +12144,13 @@
     </row>
     <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291" s="9" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B291" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D291" s="11"/>
       <c r="E291" s="11"/>
@@ -12183,7 +12162,7 @@
         <v>5</v>
       </c>
       <c r="I291" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J291" s="11"/>
       <c r="K291" s="11"/>
@@ -12197,13 +12176,13 @@
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292" s="9" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B292" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D292" s="11"/>
       <c r="E292" s="11"/>
@@ -12229,13 +12208,13 @@
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293" s="9" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B293" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D293" s="11"/>
       <c r="E293" s="11"/>
@@ -12247,7 +12226,7 @@
         <v>5</v>
       </c>
       <c r="I293" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J293" s="11"/>
       <c r="K293" s="11"/>
@@ -12261,13 +12240,13 @@
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294" s="9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B294" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D294" s="11"/>
       <c r="E294" s="11"/>
@@ -12279,7 +12258,7 @@
         <v>5</v>
       </c>
       <c r="I294" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J294" s="11"/>
       <c r="K294" s="11"/>
@@ -12293,13 +12272,13 @@
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B295" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D295" s="11"/>
       <c r="E295" s="11"/>
@@ -12311,7 +12290,7 @@
         <v>5</v>
       </c>
       <c r="I295" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J295" s="11"/>
       <c r="K295" s="11"/>
@@ -12325,33 +12304,43 @@
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296" s="9" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B296" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C296" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D296" s="11"/>
-      <c r="E296" s="11"/>
+        <v>164</v>
+      </c>
+      <c r="D296" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E296" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="F296" s="11"/>
       <c r="G296" s="15" t="s">
         <v>115</v>
       </c>
       <c r="H296" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I296" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J296" s="11"/>
-      <c r="K296" s="11"/>
-      <c r="L296" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="I296" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J296" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="K296" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L296" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="M296" s="11"/>
       <c r="N296" s="11"/>
       <c r="O296" s="11">
-        <v>29274866</v>
+        <v>29599611</v>
       </c>
       <c r="P296" s="11"/>
     </row>
@@ -12382,13 +12371,13 @@
         <v>2</v>
       </c>
       <c r="J297" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K297" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L297" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M297" s="11"/>
       <c r="N297" s="11"/>
@@ -12405,7 +12394,7 @@
         <v>21</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D298" s="11" t="s">
         <v>22</v>
@@ -12424,13 +12413,13 @@
         <v>2</v>
       </c>
       <c r="J298" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K298" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L298" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M298" s="11"/>
       <c r="N298" s="11"/>
@@ -12441,21 +12430,23 @@
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299" s="9" t="s">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="B299" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="D299" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E299" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F299" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F299" s="11" t="s">
+        <v>139</v>
+      </c>
       <c r="G299" s="15" t="s">
         <v>115</v>
       </c>
@@ -12466,57 +12457,55 @@
         <v>2</v>
       </c>
       <c r="J299" s="11" t="s">
-        <v>137</v>
+        <v>341</v>
       </c>
       <c r="K299" s="11" t="s">
-        <v>90</v>
+        <v>357</v>
       </c>
       <c r="L299" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M299" s="11"/>
       <c r="N299" s="11"/>
       <c r="O299" s="11">
-        <v>29599611</v>
+        <v>30125371</v>
       </c>
       <c r="P299" s="11"/>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B300" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="D300" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E300" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F300" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F300" s="11"/>
+      <c r="G300" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H300" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I300" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J300" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="K300" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="L300" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="G300" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H300" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I300" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J300" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="K300" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="L300" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="M300" s="11"/>
       <c r="N300" s="11"/>
@@ -12525,47 +12514,49 @@
       </c>
       <c r="P300" s="11"/>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A301" s="9" t="s">
-        <v>139</v>
+    <row r="301" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="33" t="s">
+        <v>3</v>
       </c>
       <c r="B301" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C301" s="11" t="s">
+      <c r="C301" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="D301" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E301" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F301" s="11"/>
+      <c r="D301" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E301" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F301" s="23" t="s">
+        <v>130</v>
+      </c>
       <c r="G301" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="H301" s="11" t="s">
+      <c r="H301" s="23" t="s">
         <v>1</v>
       </c>
       <c r="I301" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J301" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="K301" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="L301" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="M301" s="11"/>
-      <c r="N301" s="11"/>
-      <c r="O301" s="11">
-        <v>30125371</v>
-      </c>
-      <c r="P301" s="11"/>
+      <c r="J301" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="K301" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L301" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="M301" s="23"/>
+      <c r="N301" s="23"/>
+      <c r="O301" s="23">
+        <v>28078469</v>
+      </c>
+      <c r="P301" s="23"/>
     </row>
     <row r="302" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="33" t="s">
@@ -12584,7 +12575,7 @@
         <v>22</v>
       </c>
       <c r="F302" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G302" s="15" t="s">
         <v>115</v>
@@ -12596,13 +12587,13 @@
         <v>2</v>
       </c>
       <c r="J302" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K302" s="23" t="s">
         <v>90</v>
       </c>
       <c r="L302" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M302" s="23"/>
       <c r="N302" s="23"/>
@@ -12622,14 +12613,12 @@
         <v>278</v>
       </c>
       <c r="D303" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E303" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F303" s="23" t="s">
-        <v>131</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F303" s="23"/>
       <c r="G303" s="15" t="s">
         <v>115</v>
       </c>
@@ -12640,13 +12629,13 @@
         <v>2</v>
       </c>
       <c r="J303" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K303" s="23" t="s">
         <v>90</v>
       </c>
       <c r="L303" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M303" s="23"/>
       <c r="N303" s="23"/>
@@ -12682,13 +12671,13 @@
         <v>2</v>
       </c>
       <c r="J304" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K304" s="23" t="s">
         <v>90</v>
       </c>
       <c r="L304" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M304" s="23"/>
       <c r="N304" s="23"/>
@@ -12724,13 +12713,13 @@
         <v>2</v>
       </c>
       <c r="J305" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K305" s="23" t="s">
         <v>90</v>
       </c>
       <c r="L305" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M305" s="23"/>
       <c r="N305" s="23"/>
@@ -12750,12 +12739,14 @@
         <v>281</v>
       </c>
       <c r="D306" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E306" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F306" s="23"/>
+        <v>22</v>
+      </c>
+      <c r="F306" s="23" t="s">
+        <v>144</v>
+      </c>
       <c r="G306" s="15" t="s">
         <v>115</v>
       </c>
@@ -12766,13 +12757,13 @@
         <v>2</v>
       </c>
       <c r="J306" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K306" s="23" t="s">
         <v>90</v>
       </c>
       <c r="L306" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M306" s="23"/>
       <c r="N306" s="23"/>
@@ -12781,25 +12772,23 @@
       </c>
       <c r="P306" s="23"/>
     </row>
-    <row r="307" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="33" t="s">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A307" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B307" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C307" s="23" t="s">
+      <c r="B307" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C307" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D307" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E307" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F307" s="23" t="s">
-        <v>145</v>
-      </c>
+      <c r="D307" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E307" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F307" s="11"/>
       <c r="G307" s="15" t="s">
         <v>115</v>
       </c>
@@ -12810,20 +12799,20 @@
         <v>2</v>
       </c>
       <c r="J307" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="K307" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="K307" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L307" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="M307" s="23"/>
-      <c r="N307" s="23"/>
-      <c r="O307" s="23">
+      <c r="L307" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="M307" s="11"/>
+      <c r="N307" s="11"/>
+      <c r="O307" s="11">
         <v>28078469</v>
       </c>
-      <c r="P307" s="23"/>
+      <c r="P307" s="11"/>
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" s="9" t="s">
@@ -12852,13 +12841,13 @@
         <v>2</v>
       </c>
       <c r="J308" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K308" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L308" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M308" s="11"/>
       <c r="N308" s="11"/>
@@ -12878,12 +12867,14 @@
         <v>284</v>
       </c>
       <c r="D309" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E309" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F309" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F309" s="11" t="s">
+        <v>149</v>
+      </c>
       <c r="G309" s="15" t="s">
         <v>115</v>
       </c>
@@ -12894,13 +12885,13 @@
         <v>2</v>
       </c>
       <c r="J309" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="K309" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K309" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="L309" s="11" t="s">
-        <v>149</v>
+      <c r="L309" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="M309" s="11"/>
       <c r="N309" s="11"/>
@@ -12920,14 +12911,12 @@
         <v>285</v>
       </c>
       <c r="D310" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E310" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F310" s="11" t="s">
-        <v>150</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F310" s="11"/>
       <c r="G310" s="15" t="s">
         <v>115</v>
       </c>
@@ -12938,13 +12927,13 @@
         <v>2</v>
       </c>
       <c r="J310" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="K310" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="K310" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L310" s="23" t="s">
-        <v>149</v>
+      <c r="L310" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="M310" s="11"/>
       <c r="N310" s="11"/>
@@ -12964,12 +12953,14 @@
         <v>286</v>
       </c>
       <c r="D311" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E311" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F311" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F311" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="G311" s="15" t="s">
         <v>115</v>
       </c>
@@ -12980,13 +12971,13 @@
         <v>2</v>
       </c>
       <c r="J311" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K311" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L311" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M311" s="11"/>
       <c r="N311" s="11"/>
@@ -13003,17 +12994,15 @@
         <v>21</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D312" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E312" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F312" s="11" t="s">
-        <v>132</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F312" s="11"/>
       <c r="G312" s="15" t="s">
         <v>115</v>
       </c>
@@ -13024,13 +13013,13 @@
         <v>2</v>
       </c>
       <c r="J312" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K312" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L312" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M312" s="11"/>
       <c r="N312" s="11"/>
@@ -13047,15 +13036,17 @@
         <v>21</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>286</v>
+        <v>174</v>
       </c>
       <c r="D313" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E313" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F313" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F313" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="G313" s="15" t="s">
         <v>115</v>
       </c>
@@ -13066,13 +13057,13 @@
         <v>2</v>
       </c>
       <c r="J313" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K313" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L313" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M313" s="11"/>
       <c r="N313" s="11"/>
@@ -13089,7 +13080,7 @@
         <v>21</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
       <c r="D314" s="11" t="s">
         <v>23</v>
@@ -13097,9 +13088,7 @@
       <c r="E314" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F314" s="11" t="s">
-        <v>132</v>
-      </c>
+      <c r="F314" s="11"/>
       <c r="G314" s="15" t="s">
         <v>115</v>
       </c>
@@ -13110,13 +13099,13 @@
         <v>2</v>
       </c>
       <c r="J314" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K314" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L314" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M314" s="11"/>
       <c r="N314" s="11"/>
@@ -13136,10 +13125,10 @@
         <v>288</v>
       </c>
       <c r="D315" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E315" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F315" s="11"/>
       <c r="G315" s="15" t="s">
@@ -13152,13 +13141,13 @@
         <v>2</v>
       </c>
       <c r="J315" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K315" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L315" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M315" s="11"/>
       <c r="N315" s="11"/>
@@ -13178,12 +13167,14 @@
         <v>289</v>
       </c>
       <c r="D316" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E316" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F316" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F316" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="G316" s="15" t="s">
         <v>115</v>
       </c>
@@ -13194,13 +13185,13 @@
         <v>2</v>
       </c>
       <c r="J316" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K316" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L316" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M316" s="11"/>
       <c r="N316" s="11"/>
@@ -13220,14 +13211,12 @@
         <v>290</v>
       </c>
       <c r="D317" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E317" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F317" s="11" t="s">
-        <v>142</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F317" s="11"/>
       <c r="G317" s="15" t="s">
         <v>115</v>
       </c>
@@ -13238,13 +13227,13 @@
         <v>2</v>
       </c>
       <c r="J317" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K317" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L317" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M317" s="11"/>
       <c r="N317" s="11"/>
@@ -13261,15 +13250,17 @@
         <v>21</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>291</v>
+        <v>173</v>
       </c>
       <c r="D318" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E318" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F318" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F318" s="11" t="s">
+        <v>142</v>
+      </c>
       <c r="G318" s="15" t="s">
         <v>115</v>
       </c>
@@ -13280,13 +13271,13 @@
         <v>2</v>
       </c>
       <c r="J318" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K318" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L318" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M318" s="11"/>
       <c r="N318" s="11"/>
@@ -13303,17 +13294,15 @@
         <v>21</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>174</v>
+        <v>291</v>
       </c>
       <c r="D319" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E319" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F319" s="11" t="s">
-        <v>143</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F319" s="11"/>
       <c r="G319" s="15" t="s">
         <v>115</v>
       </c>
@@ -13324,13 +13313,13 @@
         <v>2</v>
       </c>
       <c r="J319" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K319" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L319" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M319" s="11"/>
       <c r="N319" s="11"/>
@@ -13347,15 +13336,17 @@
         <v>21</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>292</v>
+        <v>176</v>
       </c>
       <c r="D320" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E320" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F320" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F320" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="G320" s="15" t="s">
         <v>115</v>
       </c>
@@ -13366,13 +13357,13 @@
         <v>2</v>
       </c>
       <c r="J320" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K320" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L320" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M320" s="11"/>
       <c r="N320" s="11"/>
@@ -13389,17 +13380,15 @@
         <v>21</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>177</v>
+        <v>292</v>
       </c>
       <c r="D321" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E321" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F321" s="11" t="s">
-        <v>144</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F321" s="11"/>
       <c r="G321" s="15" t="s">
         <v>115</v>
       </c>
@@ -13410,13 +13399,13 @@
         <v>2</v>
       </c>
       <c r="J321" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K321" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L321" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M321" s="11"/>
       <c r="N321" s="11"/>
@@ -13433,15 +13422,17 @@
         <v>21</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="D322" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E322" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F322" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F322" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="G322" s="15" t="s">
         <v>115</v>
       </c>
@@ -13452,13 +13443,13 @@
         <v>2</v>
       </c>
       <c r="J322" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K322" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L322" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M322" s="11"/>
       <c r="N322" s="11"/>
@@ -13475,7 +13466,7 @@
         <v>21</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>310</v>
+        <v>174</v>
       </c>
       <c r="D323" s="11" t="s">
         <v>23</v>
@@ -13483,7 +13474,7 @@
       <c r="E323" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F323" s="11" t="s">
+      <c r="F323" s="23" t="s">
         <v>145</v>
       </c>
       <c r="G323" s="15" t="s">
@@ -13496,13 +13487,13 @@
         <v>2</v>
       </c>
       <c r="J323" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K323" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L323" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M323" s="11"/>
       <c r="N323" s="11"/>
@@ -13519,7 +13510,7 @@
         <v>21</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D324" s="11" t="s">
         <v>22</v>
@@ -13538,13 +13529,13 @@
         <v>2</v>
       </c>
       <c r="J324" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K324" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L324" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M324" s="11"/>
       <c r="N324" s="11"/>
@@ -13561,7 +13552,7 @@
         <v>21</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="D325" s="11" t="s">
         <v>23</v>
@@ -13569,7 +13560,7 @@
       <c r="E325" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F325" s="23" t="s">
+      <c r="F325" s="11" t="s">
         <v>146</v>
       </c>
       <c r="G325" s="15" t="s">
@@ -13582,13 +13573,13 @@
         <v>2</v>
       </c>
       <c r="J325" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K325" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L325" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M325" s="11"/>
       <c r="N325" s="11"/>
@@ -13605,7 +13596,7 @@
         <v>21</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="D326" s="11" t="s">
         <v>22</v>
@@ -13624,13 +13615,13 @@
         <v>2</v>
       </c>
       <c r="J326" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K326" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L326" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M326" s="11"/>
       <c r="N326" s="11"/>
@@ -13647,7 +13638,7 @@
         <v>21</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="D327" s="11" t="s">
         <v>23</v>
@@ -13655,8 +13646,8 @@
       <c r="E327" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F327" s="11" t="s">
-        <v>147</v>
+      <c r="F327" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="G327" s="15" t="s">
         <v>115</v>
@@ -13668,13 +13659,13 @@
         <v>2</v>
       </c>
       <c r="J327" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K327" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L327" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M327" s="11"/>
       <c r="N327" s="11"/>
@@ -13691,15 +13682,17 @@
         <v>21</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>295</v>
+        <v>219</v>
       </c>
       <c r="D328" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E328" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F328" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="E328" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F328" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="G328" s="15" t="s">
         <v>115</v>
       </c>
@@ -13710,13 +13703,13 @@
         <v>2</v>
       </c>
       <c r="J328" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K328" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L328" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M328" s="11"/>
       <c r="N328" s="11"/>
@@ -13733,17 +13726,15 @@
         <v>21</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>175</v>
+        <v>294</v>
       </c>
       <c r="D329" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E329" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F329" s="23" t="s">
-        <v>120</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E329" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F329" s="11"/>
       <c r="G329" s="15" t="s">
         <v>115</v>
       </c>
@@ -13754,13 +13745,13 @@
         <v>2</v>
       </c>
       <c r="J329" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K329" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L329" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M329" s="11"/>
       <c r="N329" s="11"/>
@@ -13777,7 +13768,7 @@
         <v>21</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="D330" s="11" t="s">
         <v>23</v>
@@ -13786,7 +13777,7 @@
         <v>22</v>
       </c>
       <c r="F330" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G330" s="15" t="s">
         <v>115</v>
@@ -13798,13 +13789,13 @@
         <v>2</v>
       </c>
       <c r="J330" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K330" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L330" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M330" s="11"/>
       <c r="N330" s="11"/>
@@ -13821,7 +13812,7 @@
         <v>21</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D331" s="11" t="s">
         <v>22</v>
@@ -13840,13 +13831,13 @@
         <v>2</v>
       </c>
       <c r="J331" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K331" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L331" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M331" s="11"/>
       <c r="N331" s="11"/>
@@ -13863,7 +13854,7 @@
         <v>21</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D332" s="11" t="s">
         <v>23</v>
@@ -13872,7 +13863,7 @@
         <v>22</v>
       </c>
       <c r="F332" s="11" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="G332" s="15" t="s">
         <v>115</v>
@@ -13884,13 +13875,13 @@
         <v>2</v>
       </c>
       <c r="J332" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K332" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L332" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M332" s="11"/>
       <c r="N332" s="11"/>
@@ -13907,7 +13898,7 @@
         <v>21</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D333" s="11" t="s">
         <v>22</v>
@@ -13926,13 +13917,13 @@
         <v>2</v>
       </c>
       <c r="J333" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K333" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L333" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M333" s="11"/>
       <c r="N333" s="11"/>
@@ -13949,17 +13940,15 @@
         <v>21</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>167</v>
+        <v>297</v>
       </c>
       <c r="D334" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E334" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F334" s="11" t="s">
-        <v>148</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E334" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F334" s="11"/>
       <c r="G334" s="15" t="s">
         <v>115</v>
       </c>
@@ -13970,13 +13959,13 @@
         <v>2</v>
       </c>
       <c r="J334" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K334" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L334" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M334" s="11"/>
       <c r="N334" s="11"/>
@@ -13993,15 +13982,17 @@
         <v>21</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>298</v>
+        <v>184</v>
       </c>
       <c r="D335" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E335" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F335" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="E335" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F335" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="G335" s="15" t="s">
         <v>115</v>
       </c>
@@ -14012,13 +14003,13 @@
         <v>2</v>
       </c>
       <c r="J335" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K335" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L335" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M335" s="11"/>
       <c r="N335" s="11"/>
@@ -14035,7 +14026,7 @@
         <v>21</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D336" s="11" t="s">
         <v>22</v>
@@ -14054,13 +14045,13 @@
         <v>2</v>
       </c>
       <c r="J336" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K336" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L336" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M336" s="11"/>
       <c r="N336" s="11"/>
@@ -14077,7 +14068,7 @@
         <v>21</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D337" s="11" t="s">
         <v>23</v>
@@ -14086,7 +14077,7 @@
         <v>22</v>
       </c>
       <c r="F337" s="11" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="G337" s="15" t="s">
         <v>115</v>
@@ -14098,13 +14089,13 @@
         <v>2</v>
       </c>
       <c r="J337" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K337" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L337" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M337" s="11"/>
       <c r="N337" s="11"/>
@@ -14121,7 +14112,7 @@
         <v>21</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D338" s="11" t="s">
         <v>22</v>
@@ -14140,13 +14131,13 @@
         <v>2</v>
       </c>
       <c r="J338" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K338" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L338" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M338" s="11"/>
       <c r="N338" s="11"/>
@@ -14163,7 +14154,7 @@
         <v>21</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>175</v>
+        <v>299</v>
       </c>
       <c r="D339" s="11" t="s">
         <v>23</v>
@@ -14171,9 +14162,7 @@
       <c r="E339" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F339" s="11" t="s">
-        <v>132</v>
-      </c>
+      <c r="F339" s="11"/>
       <c r="G339" s="15" t="s">
         <v>115</v>
       </c>
@@ -14184,13 +14173,13 @@
         <v>2</v>
       </c>
       <c r="J339" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K339" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L339" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M339" s="11"/>
       <c r="N339" s="11"/>
@@ -14210,10 +14199,10 @@
         <v>300</v>
       </c>
       <c r="D340" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E340" s="23" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="E340" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="F340" s="11"/>
       <c r="G340" s="15" t="s">
@@ -14226,13 +14215,13 @@
         <v>2</v>
       </c>
       <c r="J340" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K340" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L340" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M340" s="11"/>
       <c r="N340" s="11"/>
@@ -14242,14 +14231,14 @@
       <c r="P340" s="11"/>
     </row>
     <row r="341" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A341" s="9" t="s">
+      <c r="A341" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B341" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C341" s="11" t="s">
-        <v>301</v>
+      <c r="C341" s="23" t="s">
+        <v>238</v>
       </c>
       <c r="D341" s="11" t="s">
         <v>23</v>
@@ -14257,7 +14246,9 @@
       <c r="E341" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F341" s="11"/>
+      <c r="F341" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="G341" s="15" t="s">
         <v>115</v>
       </c>
@@ -14267,31 +14258,31 @@
       <c r="I341" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J341" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="K341" s="11" t="s">
+      <c r="J341" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K341" s="23" t="s">
         <v>90</v>
       </c>
       <c r="L341" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M341" s="11"/>
       <c r="N341" s="11"/>
       <c r="O341" s="11">
-        <v>28078469</v>
+        <v>24444658</v>
       </c>
       <c r="P341" s="11"/>
     </row>
     <row r="342" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A342" s="9" t="s">
+      <c r="A342" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B342" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C342" s="11" t="s">
-        <v>302</v>
+      <c r="C342" s="23" t="s">
+        <v>175</v>
       </c>
       <c r="D342" s="11" t="s">
         <v>23</v>
@@ -14299,7 +14290,9 @@
       <c r="E342" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F342" s="11"/>
+      <c r="F342" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="G342" s="15" t="s">
         <v>115</v>
       </c>
@@ -14309,19 +14302,19 @@
       <c r="I342" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J342" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="K342" s="11" t="s">
+      <c r="J342" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K342" s="23" t="s">
         <v>90</v>
       </c>
       <c r="L342" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M342" s="11"/>
       <c r="N342" s="11"/>
       <c r="O342" s="11">
-        <v>28078469</v>
+        <v>24444658</v>
       </c>
       <c r="P342" s="11"/>
     </row>
@@ -14333,7 +14326,7 @@
         <v>21</v>
       </c>
       <c r="C343" s="23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D343" s="11" t="s">
         <v>23</v>
@@ -14342,7 +14335,7 @@
         <v>22</v>
       </c>
       <c r="F343" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G343" s="15" t="s">
         <v>115</v>
@@ -14360,7 +14353,7 @@
         <v>90</v>
       </c>
       <c r="L343" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M343" s="11"/>
       <c r="N343" s="11"/>
@@ -14377,7 +14370,7 @@
         <v>21</v>
       </c>
       <c r="C344" s="23" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D344" s="11" t="s">
         <v>23</v>
@@ -14385,7 +14378,7 @@
       <c r="E344" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F344" s="11" t="s">
+      <c r="F344" s="23" t="s">
         <v>25</v>
       </c>
       <c r="G344" s="15" t="s">
@@ -14404,7 +14397,7 @@
         <v>90</v>
       </c>
       <c r="L344" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M344" s="11"/>
       <c r="N344" s="11"/>
@@ -14421,7 +14414,7 @@
         <v>21</v>
       </c>
       <c r="C345" s="23" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="D345" s="11" t="s">
         <v>23</v>
@@ -14429,9 +14422,7 @@
       <c r="E345" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F345" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="F345" s="11"/>
       <c r="G345" s="15" t="s">
         <v>115</v>
       </c>
@@ -14448,7 +14439,7 @@
         <v>90</v>
       </c>
       <c r="L345" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M345" s="11"/>
       <c r="N345" s="11"/>
@@ -14465,7 +14456,7 @@
         <v>21</v>
       </c>
       <c r="C346" s="23" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="D346" s="11" t="s">
         <v>23</v>
@@ -14473,9 +14464,7 @@
       <c r="E346" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F346" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="F346" s="11"/>
       <c r="G346" s="15" t="s">
         <v>115</v>
       </c>
@@ -14489,10 +14478,10 @@
         <v>91</v>
       </c>
       <c r="K346" s="23" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="L346" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M346" s="11"/>
       <c r="N346" s="11"/>
@@ -14503,13 +14492,13 @@
     </row>
     <row r="347" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A347" s="33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B347" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C347" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D347" s="11" t="s">
         <v>23</v>
@@ -14531,10 +14520,10 @@
         <v>91</v>
       </c>
       <c r="K347" s="23" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="L347" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M347" s="11"/>
       <c r="N347" s="11"/>
@@ -14545,13 +14534,13 @@
     </row>
     <row r="348" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A348" s="33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B348" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C348" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D348" s="11" t="s">
         <v>23</v>
@@ -14573,10 +14562,10 @@
         <v>91</v>
       </c>
       <c r="K348" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L348" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M348" s="11"/>
       <c r="N348" s="11"/>
@@ -14593,13 +14582,13 @@
         <v>21</v>
       </c>
       <c r="C349" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="D349" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E349" s="11" t="s">
-        <v>22</v>
+        <v>302</v>
+      </c>
+      <c r="D349" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E349" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="F349" s="11"/>
       <c r="G349" s="15" t="s">
@@ -14618,7 +14607,7 @@
         <v>151</v>
       </c>
       <c r="L349" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M349" s="11"/>
       <c r="N349" s="11"/>
@@ -14629,19 +14618,19 @@
     </row>
     <row r="350" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A350" s="33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B350" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C350" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="D350" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E350" s="11" t="s">
-        <v>22</v>
+        <v>302</v>
+      </c>
+      <c r="D350" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E350" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="F350" s="11"/>
       <c r="G350" s="15" t="s">
@@ -14660,7 +14649,7 @@
         <v>151</v>
       </c>
       <c r="L350" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M350" s="11"/>
       <c r="N350" s="11"/>
@@ -14677,13 +14666,13 @@
         <v>21</v>
       </c>
       <c r="C351" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="D351" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E351" s="23" t="s">
-        <v>23</v>
+        <v>303</v>
+      </c>
+      <c r="D351" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E351" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="F351" s="11"/>
       <c r="G351" s="15" t="s">
@@ -14699,10 +14688,10 @@
         <v>91</v>
       </c>
       <c r="K351" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="L351" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="L351" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="M351" s="11"/>
       <c r="N351" s="11"/>
@@ -14713,19 +14702,19 @@
     </row>
     <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352" s="33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B352" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C352" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="D352" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E352" s="23" t="s">
-        <v>23</v>
+        <v>162</v>
+      </c>
+      <c r="D352" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E352" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="F352" s="11"/>
       <c r="G352" s="15" t="s">
@@ -14741,10 +14730,10 @@
         <v>91</v>
       </c>
       <c r="K352" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="L352" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="L352" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="M352" s="11"/>
       <c r="N352" s="11"/>
@@ -14755,13 +14744,13 @@
     </row>
     <row r="353" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A353" s="33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B353" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C353" s="23" t="s">
-        <v>305</v>
+        <v>162</v>
       </c>
       <c r="D353" s="11" t="s">
         <v>23</v>
@@ -14783,10 +14772,10 @@
         <v>91</v>
       </c>
       <c r="K353" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="L353" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="L353" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="M353" s="11"/>
       <c r="N353" s="11"/>
@@ -14797,13 +14786,13 @@
     </row>
     <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354" s="33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B354" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C354" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D354" s="11" t="s">
         <v>23</v>
@@ -14825,10 +14814,10 @@
         <v>91</v>
       </c>
       <c r="K354" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="L354" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="L354" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="M354" s="11"/>
       <c r="N354" s="11"/>
@@ -14845,7 +14834,7 @@
         <v>21</v>
       </c>
       <c r="C355" s="23" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="D355" s="11" t="s">
         <v>23</v>
@@ -14867,10 +14856,10 @@
         <v>91</v>
       </c>
       <c r="K355" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="L355" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="L355" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="M355" s="11"/>
       <c r="N355" s="11"/>
@@ -14887,7 +14876,7 @@
         <v>21</v>
       </c>
       <c r="C356" s="23" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="D356" s="11" t="s">
         <v>23</v>
@@ -14909,10 +14898,10 @@
         <v>91</v>
       </c>
       <c r="K356" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="L356" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="L356" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="M356" s="11"/>
       <c r="N356" s="11"/>
@@ -14929,7 +14918,7 @@
         <v>21</v>
       </c>
       <c r="C357" s="23" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="D357" s="11" t="s">
         <v>23</v>
@@ -14951,10 +14940,10 @@
         <v>91</v>
       </c>
       <c r="K357" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="L357" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="L357" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="M357" s="11"/>
       <c r="N357" s="11"/>
@@ -14971,7 +14960,7 @@
         <v>21</v>
       </c>
       <c r="C358" s="23" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="D358" s="11" t="s">
         <v>23</v>
@@ -14993,10 +14982,10 @@
         <v>91</v>
       </c>
       <c r="K358" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="L358" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="L358" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="M358" s="11"/>
       <c r="N358" s="11"/>
@@ -15013,7 +15002,7 @@
         <v>21</v>
       </c>
       <c r="C359" s="23" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="D359" s="11" t="s">
         <v>23</v>
@@ -15035,10 +15024,10 @@
         <v>91</v>
       </c>
       <c r="K359" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="L359" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="L359" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="M359" s="11"/>
       <c r="N359" s="11"/>
@@ -15055,7 +15044,7 @@
         <v>21</v>
       </c>
       <c r="C360" s="23" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="D360" s="11" t="s">
         <v>23</v>
@@ -15077,10 +15066,10 @@
         <v>91</v>
       </c>
       <c r="K360" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="L360" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="L360" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="M360" s="11"/>
       <c r="N360" s="11"/>
@@ -15089,173 +15078,149 @@
       </c>
       <c r="P360" s="11"/>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A361" s="33" t="s">
+    <row r="361" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B361" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C361" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D361" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E361" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G361" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H361" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I361" s="25"/>
+      <c r="J361" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="K361" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="O361" s="2">
+        <v>26822022</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B361" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C361" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="D361" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E361" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F361" s="11"/>
-      <c r="G361" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H361" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I361" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J361" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K361" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="L361" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="M361" s="11"/>
-      <c r="N361" s="11"/>
-      <c r="O361" s="11">
-        <v>24444658</v>
-      </c>
-      <c r="P361" s="11"/>
-    </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A362" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B362" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C362" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="D362" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E362" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F362" s="11"/>
-      <c r="G362" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H362" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I362" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J362" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K362" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="L362" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="M362" s="11"/>
-      <c r="N362" s="11"/>
-      <c r="O362" s="11">
-        <v>24444658</v>
-      </c>
-      <c r="P362" s="11"/>
-    </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A363" s="33" t="s">
+      <c r="B362" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C362" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D362" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E362" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F362" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="G362" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H362" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I362" s="25"/>
+      <c r="J362" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="K362" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="M362" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="O362" s="2">
+        <v>27025835</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B363" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C363" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D363" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E363" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F363" s="11"/>
-      <c r="G363" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H363" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I363" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J363" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K363" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="L363" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="M363" s="11"/>
-      <c r="N363" s="11"/>
-      <c r="O363" s="11">
-        <v>24444658</v>
-      </c>
-      <c r="P363" s="11"/>
-    </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A364" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B364" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C364" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D364" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E364" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F364" s="11"/>
-      <c r="G364" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H364" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I364" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J364" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K364" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="L364" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="M364" s="11"/>
-      <c r="N364" s="11"/>
-      <c r="O364" s="11">
-        <v>24444658</v>
-      </c>
-      <c r="P364" s="11"/>
+      <c r="B363" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C363" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D363" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E363" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F363" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="G363" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H363" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I363" s="25"/>
+      <c r="J363" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="K363" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="M363" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="O363" s="2">
+        <v>27025835</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B364" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C364" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="D364" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E364" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G364" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H364" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I364" s="25"/>
+      <c r="J364" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="K364" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="O364" s="2">
+        <v>25614962</v>
+      </c>
     </row>
     <row r="365" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" s="28" t="s">
@@ -15265,10 +15230,10 @@
         <v>21</v>
       </c>
       <c r="C365" s="28" t="s">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="D365" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E365" s="28" t="s">
         <v>22</v>
@@ -15281,33 +15246,30 @@
       </c>
       <c r="I365" s="25"/>
       <c r="J365" s="28" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K365" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O365" s="2">
-        <v>26822022</v>
+        <v>25614962</v>
       </c>
     </row>
     <row r="366" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A366" s="28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B366" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C366" s="28" t="s">
-        <v>169</v>
+        <v>309</v>
       </c>
       <c r="D366" s="28" t="s">
         <v>22</v>
       </c>
       <c r="E366" s="28" t="s">
         <v>22</v>
-      </c>
-      <c r="F366" s="28" t="s">
-        <v>316</v>
       </c>
       <c r="G366" s="28" t="s">
         <v>115</v>
@@ -15317,16 +15279,13 @@
       </c>
       <c r="I366" s="25"/>
       <c r="J366" s="28" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="K366" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="M366" s="28" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="O366" s="2">
-        <v>27025835</v>
+        <v>25614962</v>
       </c>
     </row>
     <row r="367" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -15337,16 +15296,13 @@
         <v>21</v>
       </c>
       <c r="C367" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D367" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E367" s="28" t="s">
         <v>22</v>
-      </c>
-      <c r="F367" s="28" t="s">
-        <v>316</v>
       </c>
       <c r="G367" s="28" t="s">
         <v>115</v>
@@ -15356,27 +15312,24 @@
       </c>
       <c r="I367" s="25"/>
       <c r="J367" s="28" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="K367" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="M367" s="28" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="O367" s="2">
-        <v>27025835</v>
+        <v>29146520</v>
       </c>
     </row>
     <row r="368" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A368" s="28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B368" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C368" s="28" t="s">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="D368" s="28" t="s">
         <v>23</v>
@@ -15392,24 +15345,24 @@
       </c>
       <c r="I368" s="25"/>
       <c r="J368" s="28" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="K368" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O368" s="2">
-        <v>25614962</v>
+        <v>29146520</v>
       </c>
     </row>
     <row r="369" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" s="28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B369" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C369" s="28" t="s">
-        <v>274</v>
+        <v>164</v>
       </c>
       <c r="D369" s="28" t="s">
         <v>23</v>
@@ -15425,27 +15378,27 @@
       </c>
       <c r="I369" s="25"/>
       <c r="J369" s="28" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="K369" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O369" s="2">
-        <v>25614962</v>
+        <v>29146520</v>
       </c>
     </row>
     <row r="370" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A370" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B370" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C370" s="28" t="s">
-        <v>312</v>
+        <v>164</v>
       </c>
       <c r="D370" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E370" s="28" t="s">
         <v>22</v>
@@ -15458,24 +15411,24 @@
       </c>
       <c r="I370" s="25"/>
       <c r="J370" s="28" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="K370" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O370" s="2">
-        <v>25614962</v>
+        <v>29146520</v>
       </c>
     </row>
     <row r="371" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B371" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C371" s="28" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D371" s="28" t="s">
         <v>23</v>
@@ -15491,24 +15444,24 @@
       </c>
       <c r="I371" s="25"/>
       <c r="J371" s="28" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K371" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O371" s="2">
         <v>29146520</v>
       </c>
     </row>
     <row r="372" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="28" t="s">
+      <c r="A372" s="28">
         <v>4</v>
       </c>
       <c r="B372" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C372" s="28" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D372" s="28" t="s">
         <v>23</v>
@@ -15524,24 +15477,24 @@
       </c>
       <c r="I372" s="25"/>
       <c r="J372" s="28" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K372" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O372" s="2">
         <v>29146520</v>
       </c>
     </row>
     <row r="373" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="28" t="s">
+      <c r="A373" s="28">
         <v>4</v>
       </c>
       <c r="B373" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C373" s="28" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="D373" s="28" t="s">
         <v>23</v>
@@ -15557,24 +15510,24 @@
       </c>
       <c r="I373" s="25"/>
       <c r="J373" s="28" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K373" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O373" s="2">
         <v>29146520</v>
       </c>
     </row>
     <row r="374" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="28" t="s">
-        <v>3</v>
+      <c r="A374" s="28">
+        <v>4</v>
       </c>
       <c r="B374" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C374" s="28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D374" s="28" t="s">
         <v>23</v>
@@ -15590,10 +15543,10 @@
       </c>
       <c r="I374" s="25"/>
       <c r="J374" s="28" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K374" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O374" s="2">
         <v>29146520</v>
@@ -15601,19 +15554,19 @@
     </row>
     <row r="375" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="28" t="s">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="B375" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C375" s="28" t="s">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="D375" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E375" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G375" s="28" t="s">
         <v>115</v>
@@ -15623,24 +15576,24 @@
       </c>
       <c r="I375" s="25"/>
       <c r="J375" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="K375" s="18" t="s">
-        <v>355</v>
+        <v>341</v>
+      </c>
+      <c r="K375" s="36" t="s">
+        <v>352</v>
       </c>
       <c r="O375" s="2">
-        <v>29146520</v>
+        <v>30125371</v>
       </c>
     </row>
     <row r="376" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="28">
-        <v>4</v>
+      <c r="A376" s="28" t="s">
+        <v>138</v>
       </c>
       <c r="B376" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C376" s="28" t="s">
-        <v>161</v>
+        <v>314</v>
       </c>
       <c r="D376" s="28" t="s">
         <v>23</v>
@@ -15656,24 +15609,24 @@
       </c>
       <c r="I376" s="25"/>
       <c r="J376" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="K376" s="18" t="s">
-        <v>355</v>
+        <v>341</v>
+      </c>
+      <c r="K376" s="36" t="s">
+        <v>352</v>
       </c>
       <c r="O376" s="2">
-        <v>29146520</v>
+        <v>30125371</v>
       </c>
     </row>
     <row r="377" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="28">
-        <v>4</v>
+      <c r="A377" s="28" t="s">
+        <v>138</v>
       </c>
       <c r="B377" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C377" s="28" t="s">
-        <v>183</v>
+        <v>315</v>
       </c>
       <c r="D377" s="28" t="s">
         <v>23</v>
@@ -15689,30 +15642,30 @@
       </c>
       <c r="I377" s="25"/>
       <c r="J377" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="K377" s="18" t="s">
-        <v>355</v>
+        <v>341</v>
+      </c>
+      <c r="K377" s="36" t="s">
+        <v>352</v>
       </c>
       <c r="O377" s="2">
-        <v>29146520</v>
+        <v>30125371</v>
       </c>
     </row>
     <row r="378" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="28">
-        <v>4</v>
+      <c r="A378" s="28" t="s">
+        <v>316</v>
       </c>
       <c r="B378" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C378" s="28" t="s">
-        <v>168</v>
+        <v>317</v>
       </c>
       <c r="D378" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E378" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G378" s="28" t="s">
         <v>115</v>
@@ -15722,240 +15675,108 @@
       </c>
       <c r="I378" s="25"/>
       <c r="J378" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="K378" s="18" t="s">
-        <v>355</v>
+        <v>318</v>
+      </c>
+      <c r="K378" s="36" t="s">
+        <v>352</v>
       </c>
       <c r="O378" s="2">
-        <v>29146520</v>
+        <v>28789880</v>
       </c>
     </row>
     <row r="379" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" s="28" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="B379" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C379" s="28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D379" s="28" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E379" s="28" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="F379" s="28" t="s">
+        <v>2</v>
       </c>
       <c r="G379" s="28" t="s">
         <v>115</v>
       </c>
       <c r="H379" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I379" s="25"/>
-      <c r="J379" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="K379" s="36" t="s">
-        <v>355</v>
+        <v>5</v>
+      </c>
+      <c r="I379" s="25" t="s">
+        <v>345</v>
       </c>
       <c r="O379" s="2">
-        <v>30125371</v>
+        <v>29425396</v>
       </c>
     </row>
     <row r="380" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A380" s="28" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="B380" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C380" s="28" t="s">
-        <v>317</v>
+        <v>214</v>
       </c>
       <c r="D380" s="28" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E380" s="28" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="F380" s="28" t="s">
+        <v>2</v>
       </c>
       <c r="G380" s="28" t="s">
         <v>115</v>
       </c>
       <c r="H380" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I380" s="25"/>
-      <c r="J380" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="K380" s="36" t="s">
-        <v>355</v>
+        <v>5</v>
+      </c>
+      <c r="I380" s="25" t="s">
+        <v>345</v>
       </c>
       <c r="O380" s="2">
-        <v>30125371</v>
+        <v>29425396</v>
       </c>
     </row>
     <row r="381" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="28" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="B381" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C381" s="28" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="D381" s="28" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E381" s="28" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="F381" s="28" t="s">
+        <v>2</v>
       </c>
       <c r="G381" s="28" t="s">
         <v>115</v>
       </c>
       <c r="H381" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I381" s="25"/>
-      <c r="J381" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="K381" s="36" t="s">
-        <v>355</v>
+        <v>5</v>
+      </c>
+      <c r="I381" s="25" t="s">
+        <v>345</v>
       </c>
       <c r="O381" s="2">
-        <v>30125371</v>
-      </c>
-    </row>
-    <row r="382" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="B382" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C382" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="D382" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E382" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G382" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="H382" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I382" s="25"/>
-      <c r="J382" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="K382" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="O382" s="2">
-        <v>28789880</v>
-      </c>
-    </row>
-    <row r="383" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B383" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C383" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="D383" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E383" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F383" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G383" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="H383" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I383" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="O383" s="2">
-        <v>29425396</v>
-      </c>
-    </row>
-    <row r="384" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B384" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C384" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="D384" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E384" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F384" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G384" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="H384" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I384" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="O384" s="2">
-        <v>29425396</v>
-      </c>
-    </row>
-    <row r="385" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B385" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C385" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D385" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E385" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F385" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G385" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="H385" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I385" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="O385" s="2">
         <v>29425396</v>
       </c>
     </row>
@@ -15982,68 +15803,68 @@
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G3" t="s">
         <v>91</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
